--- a/dataSources/WSR/OneTracker.xlsx
+++ b/dataSources/WSR/OneTracker.xlsx
@@ -5,18 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\flaskDash\dataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F985A585-FD0E-4BD5-A022-A20CAB2D1D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD973FC3-E8AF-475B-AE26-3E576A03CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6 Nov 2023" sheetId="1" r:id="rId1"/>
-    <sheet name="13 Nov 2023" sheetId="2" r:id="rId2"/>
-    <sheet name="20 Nov 2023" sheetId="5" r:id="rId3"/>
-    <sheet name="27 Nov 2023" sheetId="6" r:id="rId4"/>
+    <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
+    <sheet name="9 Oct 2023" sheetId="10" r:id="rId2"/>
+    <sheet name="16 Oct 2023" sheetId="9" r:id="rId3"/>
+    <sheet name="23 Oct 2023" sheetId="8" r:id="rId4"/>
+    <sheet name="30 Oct 2023" sheetId="7" r:id="rId5"/>
+    <sheet name="6 Nov 2023" sheetId="1" r:id="rId6"/>
+    <sheet name="13 Nov 2023" sheetId="2" r:id="rId7"/>
+    <sheet name="20 Nov 2023" sheetId="5" r:id="rId8"/>
+    <sheet name="27 Nov 2023" sheetId="6" r:id="rId9"/>
+    <sheet name="4 Dec 2023" sheetId="13" r:id="rId10"/>
+    <sheet name="11 Dec 2023" sheetId="12" r:id="rId11"/>
+    <sheet name="18 Dec 2023" sheetId="15" r:id="rId12"/>
+    <sheet name="26 Dec 2023" sheetId="14" r:id="rId13"/>
+    <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,14 +49,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="183">
   <si>
     <t>Task Name</t>
   </si>
   <si>
+    <t>Hours.</t>
+  </si>
+  <si>
     <t>Resources</t>
   </si>
   <si>
+    <t>Hours..</t>
+  </si>
+  <si>
     <t>Task.</t>
   </si>
   <si>
@@ -92,13 +108,217 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Week Data Type</t>
+  </si>
+  <si>
+    <t>Week Count</t>
+  </si>
+  <si>
+    <t>Total Data Type</t>
+  </si>
+  <si>
+    <t>Total Count</t>
   </si>
   <si>
     <t>Meetings</t>
   </si>
   <si>
     <t>Johnson Benjamin</t>
+  </si>
+  <si>
+    <t>Bug Retesting</t>
+  </si>
+  <si>
+    <t>In-progress.</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Test case update (Step – 2)</t>
+  </si>
+  <si>
+    <t>Yet to start.</t>
+  </si>
+  <si>
+    <t>Debit bank account name is not displayed on the debit bank column in the "Approve payment instruction Template".</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Nikhil Garg</t>
+  </si>
+  <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
+    <t>Kathhir</t>
+  </si>
+  <si>
+    <t>Reprocessing</t>
+  </si>
+  <si>
+    <t>When Transmission Method is edited the Debit Bank name is getting cleared and after Save it is again displaying</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vignesh </t>
+  </si>
+  <si>
+    <t>UAT log fixes / JIRA Tickets</t>
+  </si>
+  <si>
+    <t>7 in progress, 4 Jira Closed, 1 Jira re-open</t>
+  </si>
+  <si>
+    <t>Rush Comment Validation message is displayed on click of Submit button, But User has selected Value date as 6th Business day</t>
+  </si>
+  <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
+    <t>In Progress.</t>
+  </si>
+  <si>
+    <t>2 in progress</t>
+  </si>
+  <si>
+    <t>Message header is still displayed as “Information” instead of “Alert“ in Step 1, it is working fine in Step 2</t>
+  </si>
+  <si>
+    <t>Garg, Nikhil</t>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Buttons not visible</t>
+  </si>
+  <si>
+    <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Ticket is displayed in Read only</t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
+  </si>
+  <si>
+    <t>Payment Approved by First Corporate Releaser and awaiting release by Second Corporate Releaser” this Email is not available in excel, attached screenshot and forwarded the mail as well</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>For Status Corporate Releaser - Rejected (Line No 44 in Excel) the “Click here” in content does not have hyperlink, attached screenshot for the same</t>
+  </si>
+  <si>
+    <t>Currently the message on Submit button is displayed as “Amount must be greater than 1 and less than or equal to 99999999999999.”</t>
+  </si>
+  <si>
+    <t>If 15 digit or more is added in the Amount field, USD equivalent is displayed as “0” now</t>
+  </si>
+  <si>
+    <t>Status is displayed twice in approve payment grids</t>
+  </si>
+  <si>
+    <t>Buttons are displayed</t>
+  </si>
+  <si>
+    <t>3 issues raised, 5 closed.</t>
+  </si>
+  <si>
+    <t>Swift payment testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we update a ticket in Treasury Reprocessing screen and click on Approve/Recommend for Rejection button, we are getting error message </t>
+  </si>
+  <si>
+    <t>2 re-open</t>
+  </si>
+  <si>
+    <t>9 in progress, 6 Jira Closed, 3 Jira re-open</t>
+  </si>
+  <si>
+    <t>If we open a ticket from "In Setup Review" and directly click on Final Review tab, error message is displayed, the Error message is not displayed if we navigate using the Next button in the first tab.</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>To be tested once Dev provides fix</t>
+  </si>
+  <si>
+    <t>Completed.</t>
+  </si>
+  <si>
+    <t>10 in progress</t>
+  </si>
+  <si>
+    <t>If the amount is too big the search is not working, if the amount is small it is working as expected. It is the same for other grids also</t>
+  </si>
+  <si>
+    <t>Swift Payment testing</t>
+  </si>
+  <si>
+    <t>Kalyan Gopi</t>
+  </si>
+  <si>
+    <t>In PPT it is mentioned that only Processor and Approver can see this page</t>
+  </si>
+  <si>
+    <t>1 issue raised, 13 closed.</t>
+  </si>
+  <si>
+    <t>High Level Regression on Step 2 process.</t>
+  </si>
+  <si>
+    <t>16-10-2023</t>
+  </si>
+  <si>
+    <t>No defect logged for the week.</t>
+  </si>
+  <si>
+    <t>Kathir</t>
+  </si>
+  <si>
+    <t>Detailed Regression on Step 2 process</t>
+  </si>
+  <si>
+    <t>Yet To Start</t>
+  </si>
+  <si>
+    <t>20-10-2023</t>
+  </si>
+  <si>
+    <t>High Level Regression</t>
+  </si>
+  <si>
+    <t>13 closed</t>
   </si>
   <si>
     <r>
@@ -130,69 +350,84 @@
     <t>Completed</t>
   </si>
   <si>
-    <t> </t>
+    <t>Testing the Audit changes from dev.</t>
+  </si>
+  <si>
+    <t>Yet to Start</t>
+  </si>
+  <si>
+    <t>Will test once the dev team provides it</t>
+  </si>
+  <si>
+    <t>Suggestion: By default values are displaying when the ticket is reprocessed for the second time.</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>Test cases updating for step 2.</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Test cases updating for step 2</t>
+  </si>
+  <si>
+    <t>UAT logs</t>
+  </si>
+  <si>
+    <t>Will test once t</t>
+  </si>
+  <si>
+    <r>
+      <t>Testing the Audit changes from dev for Nov 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> release</t>
+    </r>
+  </si>
+  <si>
+    <t>Audit Enhancement Testing</t>
+  </si>
+  <si>
+    <t>We will test once the dev team provides it.</t>
+  </si>
+  <si>
+    <t>Kalyan</t>
   </si>
   <si>
     <t>Test cases updating for Step 2</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Total Manual Execution</t>
-  </si>
-  <si>
     <t>New Changes Nov2 Release</t>
   </si>
   <si>
-    <t>Kathhir</t>
-  </si>
-  <si>
-    <t>Test cases updating for step 2.</t>
-  </si>
-  <si>
     <t>Additional Approval process in Call-back.</t>
   </si>
   <si>
-    <t>Yet to Start</t>
-  </si>
-  <si>
-    <t>We will test once the dev team provides it.</t>
-  </si>
-  <si>
-    <t>Total Automation Execution</t>
-  </si>
-  <si>
     <t>Test case updating for step 2 process.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vignesh </t>
-  </si>
-  <si>
     <t>Warning box in both the Business Approver and Treasury Approver for payments over $1M+ or $50K.</t>
   </si>
   <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total Bugs</t>
-  </si>
-  <si>
-    <t>Manual Test Created</t>
-  </si>
-  <si>
-    <t>Total Manual Case</t>
-  </si>
-  <si>
-    <t>Automation Scripts Created</t>
-  </si>
-  <si>
-    <t>Total Automation Scripts</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Solution Update testing</t>
   </si>
   <si>
@@ -220,26 +455,16 @@
     <t>Test cases update for Step 2</t>
   </si>
   <si>
-    <t>WMT - 2283</t>
-  </si>
-  <si>
-    <t>Blue lines are displayed when the user clicks on any of the search fields in Payment request grid.</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>In QA</t>
-  </si>
-  <si>
-    <t>Chaitanya</t>
+    <t>Requestor is able to submit a payment request without entering Financial approver.</t>
   </si>
   <si>
     <t>Audit Enhancement testing - Warning box in both the Business Approver and Treasury Approver for payments over $1M+</t>
   </si>
   <si>
-    <t>The Number entered in the "Age" search field is not displaying in the "Track Template" grid and
-"Approver Payment Instruction Template".</t>
+    <t>Value Date is accepting Sat and Sun in Payment Failed - Treasury Reprocessing Status</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
   <si>
     <t>Audit Enhancement testing</t>
@@ -248,8 +473,7 @@
     <t>Testing Edit existing template and Revise payment template.</t>
   </si>
   <si>
-    <t>The Number entered in the "Row" search field, "Increment by 1" and “Decrement by 1"
-buttons are also not displaying in the "Template Uploader".</t>
+    <t>Edit an Existing template not working if SWIFT payment successful</t>
   </si>
   <si>
     <t>Testing Edit and Revise payment templates</t>
@@ -261,53 +485,43 @@
     <t>21/11/2023</t>
   </si>
   <si>
-    <t>Check box, Transmission method drop down and Pagination numbers are displayed in Blue colour in Staging screen.</t>
+    <t>Validation message should not be displayed when we enter amount as “-1”  In the 2nd validation the message should be “Amount should be between 1 and 100 trillion”, attached screenshot</t>
   </si>
   <si>
     <t>Select all check box in Payment staging interface</t>
   </si>
   <si>
-    <t>Generically, all the Calendar icons are displaying in Black colour, whereas it was displayed in
-Green colour previously.</t>
+    <t>When Age is given in two or three digit issue is still occurring. Also Age field should not be less than 0, currently when decremental button is clicked from 0 negative values are displayed.</t>
   </si>
   <si>
     <t>Max length Validation message In Amount field.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Payment tag type should not be displayed in green color, attached screenshot of New version and old version.</t>
+  </si>
+  <si>
     <t>23/11/2023</t>
   </si>
   <si>
     <t>Testing will be started once deployment is done.</t>
   </si>
   <si>
+    <t>Calendar icon issue</t>
+  </si>
+  <si>
+    <t>Age field issue.</t>
+  </si>
+  <si>
     <t> 28/11/2023</t>
   </si>
   <si>
-    <t>WMT - 2292</t>
-  </si>
-  <si>
-    <t>The first letter of the message displayed in BL screen needs to be in Caps.</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Lipi</t>
+    <t>Calendar icon issue.</t>
   </si>
   <si>
     <t>27/11/2023</t>
   </si>
   <si>
     <t>28/11/2023</t>
-  </si>
-  <si>
-    <t>WMT - 2503</t>
-  </si>
-  <si>
-    <t>Requestor is able to submit a payment request without entering Financial approver.</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <r>
@@ -325,104 +539,139 @@
     </r>
   </si>
   <si>
-    <t>WMT - 2054</t>
-  </si>
-  <si>
-    <t>Value Date is accepting Sat and Sun in Payment Failed - Treasury Reprocessing Status.</t>
-  </si>
-  <si>
-    <t>Kalyan Gopi</t>
-  </si>
-  <si>
     <t>JIRA tickets testing.</t>
   </si>
   <si>
-    <t>WMT - 1813</t>
-  </si>
-  <si>
-    <t>Validation message should not be displayed when we enter amount as “-1”.</t>
-  </si>
-  <si>
     <t>JIRA tickets</t>
   </si>
   <si>
     <t>Audit Enhancement testing - Additional Approval process in Call-back Verification.</t>
   </si>
   <si>
-    <t>Validation the message should be “Amount should be between 1 and 100 trillion”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WMT - 2247 </t>
-  </si>
-  <si>
-    <t>When TA Return to Requestor, document uploaded in CB Verifier is not clearing.</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>TP saves internal use tab, now when CB opens the same tickets, buttons are displayed in internal use tab and final review tab and CB is able to perform approve.</t>
-  </si>
-  <si>
     <t>Added Required to label for Beneficiary Address and City in Step 1</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Hours.</t>
-  </si>
-  <si>
-    <t>Hours..</t>
-  </si>
-  <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
-  </si>
-  <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
-  </si>
-  <si>
-    <t>Automation execution</t>
-  </si>
-  <si>
-    <t>Total automation execution</t>
-  </si>
-  <si>
-    <t>Total bugs</t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
-  </si>
-  <si>
-    <t>Week Data Type</t>
-  </si>
-  <si>
-    <t>Total Data Type</t>
-  </si>
-  <si>
-    <t>Week Count</t>
-  </si>
-  <si>
-    <t>Total Count</t>
+    <t>Solution Upgrade testing.</t>
+  </si>
+  <si>
+    <t>User has Treasury processor and Call back verifier and user has not submitted call back verifier and approving as Treasury processor.</t>
+  </si>
+  <si>
+    <t>Role based testing in Grids.</t>
+  </si>
+  <si>
+    <t>Rush mail is triggered when, fund approver approves from Teams or Emails</t>
+  </si>
+  <si>
+    <t>Audit Enhancement testing – Call back verification.</t>
+  </si>
+  <si>
+    <t>Led - User Address update.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Will be tested, once it is deployed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit Existing and Revise template testing.</t>
+  </si>
+  <si>
+    <t>Role based testing</t>
+  </si>
+  <si>
+    <t>Bugs retesting.</t>
+  </si>
+  <si>
+    <t>In progress.</t>
+  </si>
+  <si>
+    <t>Test cases update for Step 2.</t>
+  </si>
+  <si>
+    <t>LED Address is getting updated for Status: Payment Sent for SWIFT Processing</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Testcase updation</t>
+  </si>
+  <si>
+    <t>Role based testing.</t>
+  </si>
+  <si>
+    <t>15-12-2023</t>
+  </si>
+  <si>
+    <t>Led – Address change testing</t>
+  </si>
+  <si>
+    <t>Bug retesting</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>Testcase updating</t>
+  </si>
+  <si>
+    <t>One open ticket</t>
+  </si>
+  <si>
+    <t>One open ticket, waiting for Dev to fix the issue</t>
+  </si>
+  <si>
+    <t>POP (Purpose of Payment)</t>
+  </si>
+  <si>
+    <t>Will start once deployment is done</t>
+  </si>
+  <si>
+    <t> 29/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>Call back verifier testing</t>
+  </si>
+  <si>
+    <t>Testing to be initiated on Jan 2</t>
+  </si>
+  <si>
+    <t> 12/01/2024</t>
+  </si>
+  <si>
+    <t>Led - User Address update (Regression).</t>
+  </si>
+  <si>
+    <t> 05/01/2024</t>
+  </si>
+  <si>
+    <t>POP testing</t>
+  </si>
+  <si>
+    <t>Bugs retesting</t>
+  </si>
+  <si>
+    <t>Call back verifier – Regression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +768,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -540,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -661,11 +941,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -774,8 +1115,124 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,11 +1513,5162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFAB282-477E-429C-9F89-A5DB34BB1A96}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30">
+      <c r="A2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>32</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="L2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="73">
+        <v>165</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>40</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="44">
+        <v>45209</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="45">
+        <v>45209</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="Q3" s="73">
+        <v>166</v>
+      </c>
+      <c r="R3" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>229</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="73">
+        <v>167</v>
+      </c>
+      <c r="R4" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="73">
+        <v>168</v>
+      </c>
+      <c r="R5" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="Q6" s="73">
+        <v>169</v>
+      </c>
+      <c r="R6" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="Q7" s="73">
+        <v>170</v>
+      </c>
+      <c r="R7" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="Q8" s="73">
+        <v>171</v>
+      </c>
+      <c r="R8" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="Q9" s="73">
+        <v>172</v>
+      </c>
+      <c r="R9" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
+      <c r="Q10" s="73">
+        <v>173</v>
+      </c>
+      <c r="R10" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="73">
+        <v>174</v>
+      </c>
+      <c r="R11" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="Q12" s="73">
+        <v>175</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="Q13" s="73">
+        <v>176</v>
+      </c>
+      <c r="R13" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="Q15" s="46"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B5BA26-29F6-460D-AE02-932FD2A55792}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="R3" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="73">
+        <v>191</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="35"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="73">
+        <v>192</v>
+      </c>
+      <c r="R3" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="35"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>140</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="6">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="A7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="G8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="G9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.8">
+      <c r="G10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCA146-0416-40F0-90B6-EB38E20D146C}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y2" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>40</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="L2" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="73">
+        <v>193</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="35"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="L3" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="6">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="44">
+        <v>45272</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="L4" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="62">
+        <v>45272</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="A6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.8">
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E1262C-D24D-417F-A9AD-2A1A13B9CAAB}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>32</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>23</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>110</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="6">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="L5" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.8">
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BF0000-2424-4E67-B3B4-8B6F0D82325E}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="66">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>14</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="66">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="66">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="66">
+        <v>17.5</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="G6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="L6" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="P7" s="32"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="1"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225B4E4E-F557-415E-AD16-582F7AD941AC}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="66">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="80">
+        <v>45627</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="66">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>28</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="L3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="79">
+        <v>45627</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="66">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="79">
+        <v>45505</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="79">
+        <v>45505</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="66">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="79">
+        <v>45505</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="79">
+        <v>45413</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="A6" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="66">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="79">
+        <v>45627</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="79">
+        <v>45413</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="79">
+        <v>45505</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.8">
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A99992-8CDC-4AFA-B5B9-1EA71B614833}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="T3" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>53</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="45">
+        <v>45209</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="73">
+        <v>177</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>61.5</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="50">
+        <v>53.5</v>
+      </c>
+      <c r="G3" s="82"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="73">
+        <v>178</v>
+      </c>
+      <c r="R3" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="73"/>
+      <c r="W3" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>233</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6">
+        <v>24</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="48">
+        <v>6</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="73">
+        <v>179</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6">
+        <v>32</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="48">
+        <v>12</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="45">
+        <v>45209</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="Q5" s="73">
+        <v>180</v>
+      </c>
+      <c r="R5" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="G6" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="20"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84366D6E-90EF-4AA1-9F7B-2E744F75F020}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="W5" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>65</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="3">
+        <v>63.5</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>200</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="6">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="4">
+        <v>18</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="20"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF222FBC-1CF9-4496-BF24-F8CA7FF34467}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="W3" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>46</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="L2" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="73">
+        <v>181</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="76"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="25"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="6">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="25"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>80</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="25"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="78"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD034EBE-0518-4751-8715-41223828A7C3}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="L2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="6">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>90</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="Q11" s="20"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.4">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.4">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView topLeftCell="S3" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -1088,126 +6696,115 @@
     <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="2"/>
-    <col min="31" max="31" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="2"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.4">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="17.399999999999999">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="17"/>
       <c r="R2" s="18"/>
@@ -1216,59 +6813,54 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>108</v>
-      </c>
-      <c r="AB2" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="30">
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B3" s="6">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="18"/>
@@ -1277,34 +6869,29 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>296</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>118</v>
-      </c>
-      <c r="AE3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="28.8">
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>135</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B4" s="6">
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1314,16 +6901,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="13" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="18"/>
@@ -1332,26 +6919,21 @@
       <c r="U4" s="18"/>
       <c r="V4" s="19"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE4" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="14.4">
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -1359,7 +6941,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -1371,26 +6953,21 @@
       <c r="U5" s="18"/>
       <c r="V5" s="19"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>180</v>
-      </c>
-      <c r="AB5" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>89</v>
-      </c>
-      <c r="AE5" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="14.4">
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1402,29 +6979,21 @@
       <c r="U6" s="18"/>
       <c r="V6" s="19"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>8</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>34</v>
-      </c>
-      <c r="AE6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="14.4">
-      <c r="F7" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
       <c r="Q7" s="17"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -1432,22 +7001,18 @@
       <c r="U7" s="18"/>
       <c r="V7" s="19"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>116</v>
-      </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AE7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="14.4">
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -1455,18 +7020,10 @@
       <c r="U8" s="18"/>
       <c r="V8" s="19"/>
       <c r="W8" s="1"/>
-      <c r="Y8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.4">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -1474,18 +7031,10 @@
       <c r="U9" s="18"/>
       <c r="V9" s="19"/>
       <c r="W9" s="1"/>
-      <c r="Y9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>306</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" ht="14.4">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -1494,9 +7043,9 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="14.4">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -1505,7 +7054,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:32" ht="14.4">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1513,7 +7062,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="14.4">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1521,7 +7070,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="14.4">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1529,7 +7078,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="14.4">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1537,7 +7086,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:32" ht="14.4">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1567,12 +7116,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView topLeftCell="V3" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -1601,126 +7150,115 @@
     <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="2"/>
-    <col min="31" max="31" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="2"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.4">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="30">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>24</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="22"/>
@@ -1730,59 +7268,54 @@
       <c r="U2" s="23"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>46</v>
-      </c>
-      <c r="AE2" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="30">
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>42</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="22"/>
@@ -1792,34 +7325,29 @@
       <c r="U3" s="23"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>297</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC3" s="1">
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
         <v>120</v>
       </c>
-      <c r="AE3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="28.8">
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3">
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1829,16 +7357,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="10" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="22"/>
@@ -1848,26 +7376,21 @@
       <c r="U4" s="23"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>37</v>
-      </c>
-      <c r="AE4" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="28.8">
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -1875,16 +7398,16 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="10" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="22"/>
@@ -1894,41 +7417,36 @@
       <c r="U5" s="23"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>181</v>
-      </c>
-      <c r="AB5" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>150</v>
-      </c>
-      <c r="AE5" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="28.8">
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="L6" s="10" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="22"/>
@@ -1938,26 +7456,21 @@
       <c r="U6" s="23"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>15</v>
-      </c>
-      <c r="AE6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="14.4">
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
       <c r="Q7" s="22"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
@@ -1965,22 +7478,18 @@
       <c r="U7" s="23"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>117</v>
-      </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AE7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="14.4">
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="22"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -1988,18 +7497,10 @@
       <c r="U8" s="23"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="Y8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>11</v>
-      </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.4">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
@@ -2007,18 +7508,10 @@
       <c r="U9" s="23"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="Y9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>307</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" ht="14.4">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -2027,7 +7520,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="14.4">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2035,7 +7528,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:32" ht="14.4">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2043,7 +7536,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="14.4">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2051,7 +7544,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="14.4">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2059,7 +7552,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="14.4">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2067,7 +7560,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:32" ht="14.4">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2096,12 +7589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView topLeftCell="T4" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -2130,518 +7623,492 @@
     <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="2"/>
-    <col min="31" max="31" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="2"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.4">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="28.8">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>34</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P2" s="26"/>
-      <c r="Q2" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="1"/>
+      <c r="Q2" s="73">
+        <v>182</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="73"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>110</v>
-      </c>
-      <c r="AB2" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="43.2">
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B3" s="6">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>34</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P3" s="26"/>
-      <c r="Q3" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="1"/>
+      <c r="Q3" s="73">
+        <v>183</v>
+      </c>
+      <c r="R3" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="73"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>298</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="43.2">
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>230</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="B4" s="6">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P4" s="26"/>
-      <c r="Q4" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="1"/>
+      <c r="Q4" s="73">
+        <v>184</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="73"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="44.4">
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6">
         <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="26"/>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="73">
+        <v>185</v>
+      </c>
+      <c r="R5" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="U5" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="73"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="36" t="s">
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="L6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="73">
+        <v>186</v>
+      </c>
+      <c r="R6" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="75"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="Z6" s="72">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="Y5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>182</v>
-      </c>
-      <c r="AB5" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="43.2">
-      <c r="L6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="28.8">
+      <c r="AC6" s="70">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
       <c r="L7" s="10" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="1"/>
+      <c r="Q7" s="73">
+        <v>187</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="75"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>118</v>
-      </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AE7" s="38" t="s">
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="43.2">
+      <c r="L8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AF7" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="43.2">
-      <c r="L8" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="P8" s="27"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="1"/>
+      <c r="Q8" s="73">
+        <v>188</v>
+      </c>
+      <c r="R8" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="73"/>
       <c r="W8" s="1"/>
-      <c r="Y8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.4">
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="Q9" s="73">
+        <v>189</v>
+      </c>
+      <c r="R9" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="73"/>
       <c r="W9" s="1"/>
-      <c r="Y9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>308</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" ht="14.4">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -2650,7 +8117,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="14.4">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="R11" s="31"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2658,7 +8125,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:32" ht="14.4">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="31"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2666,7 +8133,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="14.4">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="31"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2674,7 +8141,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="14.4">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="31"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2682,7 +8149,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="14.4">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="31"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2690,7 +8157,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:32" ht="14.4">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="31"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2719,12 +8186,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -2753,560 +8220,452 @@
     <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="2"/>
-    <col min="31" max="31" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="2"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.4">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="30">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>51</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="73">
+        <v>190</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="73" t="s">
         <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>75</v>
       </c>
       <c r="V2" s="35"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1">
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57.6">
+      <c r="A3" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="AB2" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="30">
-      <c r="A3" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="B3" s="6">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>51</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="10" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
       <c r="V3" s="35"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>299</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>23</v>
-      </c>
-      <c r="AE3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="28.8">
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>163</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="B4" s="6">
         <v>70.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>5.5</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P4" s="24"/>
-      <c r="Q4" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
       <c r="V4" s="35"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="44.4">
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4">
         <v>35</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" s="10" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="24"/>
-      <c r="Q5" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
       <c r="V5" s="35"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>183</v>
-      </c>
-      <c r="AB5" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>45</v>
-      </c>
-      <c r="AE5" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="30">
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6">
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P6" s="24"/>
-      <c r="Q6" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>11</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>11</v>
-      </c>
-      <c r="AE6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="30">
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6">
       <c r="G7" s="10" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
-      <c r="Q7" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>119</v>
-      </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AE7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="43.2">
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
       <c r="V8" s="35"/>
       <c r="W8" s="1"/>
-      <c r="Y8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.4">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="33"/>
       <c r="R9" s="34"/>
@@ -3315,27 +8674,19 @@
       <c r="U9" s="34"/>
       <c r="V9" s="35"/>
       <c r="W9" s="1"/>
-      <c r="Y9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>309</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" ht="16.8">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="33"/>
       <c r="R10" s="34"/>
@@ -3345,7 +8696,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="14.4">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -3354,7 +8705,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:32" ht="14.4">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -3362,7 +8713,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="14.4">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3370,7 +8721,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="14.4">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3378,7 +8729,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="14.4">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3386,7 +8737,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:32" ht="14.4">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3425,6 +8776,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3595,15 +8955,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
   <ds:schemaRefs>
@@ -3614,6 +8965,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED215CB4-F589-4F3C-9C04-F0898A4C2230}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3630,12 +8989,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/OneTracker.xlsx
+++ b/dataSources/WSR/OneTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD973FC3-E8AF-475B-AE26-3E576A03CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{BD973FC3-E8AF-475B-AE26-3E576A03CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC285E8-79ED-47A3-B7B5-5A911B2B9783}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="18 Dec 2023" sheetId="15" r:id="rId12"/>
     <sheet name="26 Dec 2023" sheetId="14" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
+    <sheet name="8 Jan 2024" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="187">
   <si>
     <t>Task Name</t>
   </si>
@@ -159,7 +160,7 @@
     <t>Total manual</t>
   </si>
   <si>
-    <t>Kathhir</t>
+    <t>Kathir</t>
   </si>
   <si>
     <t>Reprocessing</t>
@@ -301,9 +302,6 @@
   </si>
   <si>
     <t>No defect logged for the week.</t>
-  </si>
-  <si>
-    <t>Kathir</t>
   </si>
   <si>
     <t>Detailed Regression on Step 2 process</t>
@@ -666,12 +664,27 @@
   <si>
     <t>Call back verifier – Regression</t>
   </si>
+  <si>
+    <t>WMT-2975</t>
+  </si>
+  <si>
+    <t>If only FFC Account Name is provided in OT Step 1, it is not added to SWIFT file.</t>
+  </si>
+  <si>
+    <t>Swikriti</t>
+  </si>
+  <si>
+    <t>POP testing - (Purpose of Payment)</t>
+  </si>
+  <si>
+    <t>Jira tickets/Bug retesting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +810,17 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1006,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1233,6 +1257,17 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,40 +1551,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFAB282-477E-429C-9F89-A5DB34BB1A96}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1788,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1930,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="73">
         <v>171</v>
       </c>
@@ -1951,7 +1986,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="73">
         <v>172</v>
       </c>
@@ -1972,7 +2007,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="73">
         <v>173</v>
       </c>
@@ -1991,7 +2026,7 @@
       <c r="V10" s="73"/>
       <c r="W10" s="73"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="73">
         <v>174</v>
       </c>
@@ -2010,7 +2045,7 @@
       <c r="V11" s="75"/>
       <c r="W11" s="75"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="73">
         <v>175</v>
       </c>
@@ -2029,7 +2064,7 @@
       <c r="V12" s="73"/>
       <c r="W12" s="73"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="Q13" s="73">
         <v>176</v>
       </c>
@@ -2048,7 +2083,7 @@
       <c r="V13" s="73"/>
       <c r="W13" s="73"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="Q14" s="46"/>
       <c r="R14" s="47"/>
       <c r="S14" s="47"/>
@@ -2057,7 +2092,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="Q15" s="46"/>
       <c r="R15" s="47"/>
       <c r="S15" s="47"/>
@@ -2066,7 +2101,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -2075,7 +2110,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2083,7 +2118,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2105,36 +2140,36 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2220,18 +2255,18 @@
         <v>43</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
       <c r="L2" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>27</v>
@@ -2244,7 +2279,7 @@
         <v>191</v>
       </c>
       <c r="R2" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S2" s="73" t="s">
         <v>31</v>
@@ -2273,30 +2308,30 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>43</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
       <c r="L3" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="53" t="s">
         <v>27</v>
@@ -2309,7 +2344,7 @@
         <v>192</v>
       </c>
       <c r="R3" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S3" s="73" t="s">
         <v>31</v>
@@ -2336,9 +2371,9 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="6">
         <v>28</v>
@@ -2350,26 +2385,26 @@
         <v>4.5</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="60" t="s">
         <v>153</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>154</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="58"/>
@@ -2395,7 +2430,7 @@
     </row>
     <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="6">
         <v>16.5</v>
@@ -2407,10 +2442,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
@@ -2444,13 +2479,13 @@
     </row>
     <row r="6" spans="1:29" ht="30">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="6">
         <v>30</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>74</v>
@@ -2489,16 +2524,16 @@
     </row>
     <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="6">
         <v>14</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -2527,12 +2562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>97</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>98</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
@@ -2553,12 +2588,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
@@ -2574,12 +2609,12 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.899999999999999">
       <c r="G10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
@@ -2593,7 +2628,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -2602,7 +2637,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2610,7 +2645,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2618,7 +2653,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2626,7 +2661,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2634,7 +2669,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2642,7 +2677,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2650,7 +2685,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2667,41 +2702,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCA146-0416-40F0-90B6-EB38E20D146C}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Y2" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2787,20 +2822,20 @@
         <v>40</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="61" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>27</v>
@@ -2813,10 +2848,10 @@
         <v>193</v>
       </c>
       <c r="R2" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="73" t="s">
         <v>160</v>
-      </c>
-      <c r="S2" s="73" t="s">
-        <v>161</v>
       </c>
       <c r="T2" s="73" t="s">
         <v>72</v>
@@ -2842,7 +2877,7 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="6">
         <v>12</v>
@@ -2854,23 +2889,23 @@
         <v>32</v>
       </c>
       <c r="G3" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>164</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="57" t="s">
         <v>163</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="57" t="s">
-        <v>164</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>27</v>
@@ -2897,9 +2932,9 @@
         <v>4843</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="6">
         <v>26</v>
@@ -2911,20 +2946,20 @@
         <v>1.5</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="44">
         <v>45272</v>
       </c>
       <c r="J4" s="8"/>
       <c r="L4" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N4" s="62">
         <v>45272</v>
@@ -2956,16 +2991,16 @@
     </row>
     <row r="5" spans="1:29" ht="72">
       <c r="A5" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="6">
         <v>29.5</v>
       </c>
       <c r="G5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>97</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>98</v>
       </c>
       <c r="I5" s="61" t="s">
         <v>27</v>
@@ -2999,9 +3034,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
@@ -3066,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3086,7 +3121,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3101,7 +3136,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.899999999999999">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -3114,7 +3149,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="58"/>
       <c r="R11" s="59"/>
       <c r="S11" s="59"/>
@@ -3123,7 +3158,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="58"/>
       <c r="R12" s="59"/>
       <c r="S12" s="59"/>
@@ -3132,7 +3167,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3140,7 +3175,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3148,7 +3183,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3156,7 +3191,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3164,7 +3199,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3172,7 +3207,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3189,41 +3224,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E1262C-D24D-417F-A9AD-2A1A13B9CAAB}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3309,25 +3344,25 @@
         <v>32</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>27</v>
@@ -3356,7 +3391,7 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="6">
         <v>12</v>
@@ -3368,22 +3403,22 @@
         <v>23</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="21" t="s">
@@ -3411,9 +3446,9 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="6">
         <v>36</v>
@@ -3425,28 +3460,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="I4" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="58"/>
@@ -3472,7 +3507,7 @@
     </row>
     <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -3484,16 +3519,16 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="L5" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="58"/>
@@ -3517,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="10"/>
@@ -3580,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3600,7 +3635,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3615,7 +3650,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.899999999999999">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -3628,7 +3663,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="58"/>
       <c r="R11" s="59"/>
       <c r="S11" s="59"/>
@@ -3637,7 +3672,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="58"/>
       <c r="R12" s="59"/>
       <c r="S12" s="59"/>
@@ -3646,7 +3681,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3654,7 +3689,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3662,7 +3697,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3670,7 +3705,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3678,7 +3713,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3686,7 +3721,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3703,41 +3738,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BF0000-2424-4E67-B3B4-8B6F0D82325E}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3809,7 +3844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3823,25 +3858,25 @@
         <v>14</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="M2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="64" t="s">
         <v>173</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="64" t="s">
-        <v>174</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>27</v>
@@ -3870,7 +3905,7 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="66">
         <v>10</v>
@@ -3882,25 +3917,25 @@
         <v>30</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>27</v>
@@ -3927,9 +3962,9 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="66">
         <v>17</v>
@@ -3941,10 +3976,10 @@
         <v>2.5</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>27</v>
@@ -3953,16 +3988,16 @@
         <v>27</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="58"/>
@@ -3988,28 +4023,28 @@
     </row>
     <row r="5" spans="1:29" ht="72">
       <c r="A5" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="66">
         <v>17.5</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="I5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>27</v>
@@ -4049,16 +4084,16 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="L6" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="58"/>
@@ -4100,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -4114,7 +4149,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="58"/>
       <c r="R9" s="59"/>
       <c r="S9" s="59"/>
@@ -4123,7 +4158,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="58"/>
       <c r="R10" s="59"/>
       <c r="S10" s="59"/>
@@ -4132,7 +4167,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="58"/>
       <c r="R11" s="59"/>
       <c r="S11" s="59"/>
@@ -4141,7 +4176,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="58"/>
       <c r="R12" s="59"/>
       <c r="S12" s="59"/>
@@ -4150,7 +4185,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4158,7 +4193,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4166,7 +4201,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4174,7 +4209,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4182,7 +4217,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4190,7 +4225,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4207,41 +4242,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225B4E4E-F557-415E-AD16-582F7AD941AC}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4313,7 +4348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -4327,22 +4362,22 @@
         <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="80">
         <v>45627</v>
@@ -4374,7 +4409,7 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="66">
         <v>12</v>
@@ -4386,20 +4421,20 @@
         <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="79">
         <v>45627</v>
@@ -4429,9 +4464,9 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="66">
         <v>17</v>
@@ -4443,10 +4478,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="79">
         <v>45505</v>
@@ -4455,10 +4490,10 @@
         <v>27</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N4" s="79">
         <v>45505</v>
@@ -4490,16 +4525,16 @@
     </row>
     <row r="5" spans="1:29" ht="72">
       <c r="A5" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="66">
         <v>10</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="79">
         <v>45505</v>
@@ -4508,10 +4543,10 @@
         <v>27</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N5" s="79">
         <v>45413</v>
@@ -4539,18 +4574,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="66">
         <v>17</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="I6" s="79">
         <v>45627</v>
@@ -4559,10 +4594,10 @@
         <v>27</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6" s="79">
         <v>45413</v>
@@ -4598,10 +4633,10 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7" s="79">
         <v>45505</v>
@@ -4626,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4646,7 +4681,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4661,7 +4696,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.899999999999999">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4674,7 +4709,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="58"/>
       <c r="R11" s="59"/>
       <c r="S11" s="59"/>
@@ -4683,7 +4718,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="58"/>
       <c r="R12" s="59"/>
       <c r="S12" s="59"/>
@@ -4692,7 +4727,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4700,7 +4735,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4708,7 +4743,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4716,7 +4751,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4724,7 +4759,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4732,7 +4767,529 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E5F973-19EA-4264-B9A5-36C27BF0D163}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="8.85546875" style="2"/>
+    <col min="28" max="28" width="11.5703125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="66">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="79">
+        <v>45536</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="79">
+        <v>45627</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
+      <c r="Y2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="70">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="66">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="79">
+        <v>45536</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="L3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="79">
+        <v>45627</v>
+      </c>
+      <c r="O3" s="21"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="89"/>
+      <c r="Y3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="69">
+        <v>180</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="70">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="30.75">
+      <c r="A4" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="66">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="79">
+        <v>45627</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="L4" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="79">
+        <v>45627</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="89"/>
+      <c r="Y4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="45.75">
+      <c r="A5" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="66">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="79">
+        <v>45536</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="89"/>
+      <c r="Y5" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="38"/>
+      <c r="B6" s="66"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="79">
+        <v>45536</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="79">
+        <v>45536</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="71">
+        <f>AC4/AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.5">
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4753,36 +5310,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4854,7 +5411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -4986,7 +5543,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -5116,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="41" t="s">
         <v>43</v>
       </c>
@@ -5169,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="55"/>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
@@ -5180,7 +5737,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -5191,7 +5748,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -5200,7 +5757,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -5209,7 +5766,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5217,7 +5774,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5225,7 +5782,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5233,7 +5790,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5241,7 +5798,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5249,7 +5806,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5257,7 +5814,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5284,35 +5841,35 @@
       <selection activeCell="Y1" sqref="Y1:AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5384,7 +5941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -5452,7 +6009,7 @@
         <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>63.5</v>
@@ -5470,13 +6027,13 @@
         <v>27</v>
       </c>
       <c r="L3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="N3" s="43" t="s">
         <v>86</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>87</v>
       </c>
       <c r="O3" s="39"/>
       <c r="Q3" s="58"/>
@@ -5500,7 +6057,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -5552,7 +6109,7 @@
     </row>
     <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6">
         <v>17</v>
@@ -5573,7 +6130,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>27</v>
@@ -5602,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5647,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="58"/>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
@@ -5658,7 +6215,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="58"/>
       <c r="R9" s="59"/>
       <c r="S9" s="59"/>
@@ -5669,7 +6226,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -5678,7 +6235,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -5687,7 +6244,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5695,7 +6252,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5703,7 +6260,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5711,7 +6268,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5719,7 +6276,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5727,7 +6284,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5735,7 +6292,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5757,35 +6314,35 @@
       <selection activeCell="Y1" sqref="Y1:AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5871,32 +6428,32 @@
         <v>46</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="N2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="57" t="s">
         <v>93</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="57" t="s">
-        <v>94</v>
       </c>
       <c r="Q2" s="73">
         <v>181</v>
       </c>
       <c r="R2" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S2" s="73" t="s">
         <v>39</v>
@@ -5923,32 +6480,32 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6">
         <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>46.6</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="60" t="s">
         <v>27</v>
@@ -5977,7 +6534,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -5991,16 +6548,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="57" t="s">
         <v>100</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="57" t="s">
-        <v>101</v>
       </c>
       <c r="Q4" s="76"/>
       <c r="R4" s="76"/>
@@ -6063,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6108,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="58"/>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
@@ -6119,7 +6676,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="58"/>
       <c r="R9" s="59"/>
       <c r="S9" s="59"/>
@@ -6130,7 +6687,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="58"/>
       <c r="R10" s="59"/>
       <c r="S10" s="59"/>
@@ -6139,7 +6696,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="58"/>
       <c r="R11" s="59"/>
       <c r="S11" s="59"/>
@@ -6148,7 +6705,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6156,7 +6713,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6164,7 +6721,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6172,7 +6729,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6180,7 +6737,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6188,7 +6745,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6196,7 +6753,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6218,35 +6775,35 @@
       <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6318,7 +6875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6332,20 +6889,20 @@
         <v>20</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>27</v>
@@ -6376,32 +6933,32 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="6">
         <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>97</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>98</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="60" t="s">
         <v>27</v>
@@ -6430,7 +6987,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -6444,16 +7001,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="60" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="58"/>
       <c r="R4" s="59"/>
@@ -6480,7 +7037,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4">
         <v>6</v>
@@ -6516,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6561,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="58"/>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
@@ -6572,7 +7129,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="58"/>
       <c r="R9" s="59"/>
       <c r="S9" s="59"/>
@@ -6583,7 +7140,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="58"/>
       <c r="R10" s="59"/>
       <c r="S10" s="59"/>
@@ -6592,7 +7149,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -6601,7 +7158,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6609,7 +7166,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6617,7 +7174,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6625,7 +7182,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6633,7 +7190,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6641,7 +7198,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6649,7 +7206,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6671,35 +7228,35 @@
       <selection activeCell="Y1" sqref="Y1:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6771,7 +7328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6785,20 +7342,20 @@
         <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>27</v>
@@ -6829,7 +7386,7 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="6">
         <v>20</v>
@@ -6841,26 +7398,26 @@
         <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="18"/>
@@ -6883,9 +7440,9 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="6">
         <v>63</v>
@@ -6901,16 +7458,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="18"/>
@@ -6967,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7012,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -7023,7 +7580,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -7034,7 +7591,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -7043,7 +7600,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="20" t="s">
         <v>27</v>
       </c>
@@ -7054,7 +7611,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -7062,7 +7619,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -7070,7 +7627,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -7078,7 +7635,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7086,7 +7643,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7094,7 +7651,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7102,7 +7659,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7124,36 +7681,36 @@
       <selection activeCell="Y1" sqref="Y1:AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7239,20 +7796,20 @@
         <v>24</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>27</v>
@@ -7284,7 +7841,7 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3">
         <v>33</v>
@@ -7296,23 +7853,23 @@
         <v>42</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>27</v>
@@ -7339,9 +7896,9 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3">
         <v>31</v>
@@ -7357,16 +7914,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="22"/>
@@ -7398,16 +7955,16 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="N5" s="21" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="22"/>
@@ -7431,22 +7988,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="L6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="22"/>
@@ -7489,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="22"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -7500,7 +8057,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
@@ -7511,7 +8068,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -7520,7 +8077,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -7528,7 +8085,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -7536,7 +8093,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -7544,7 +8101,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -7552,7 +8109,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7560,7 +8117,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7568,7 +8125,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7576,7 +8133,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7597,36 +8154,36 @@
       <selection activeCell="Y1" sqref="Y1:AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="25" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="25"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="25"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7698,7 +8255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -7712,22 +8269,22 @@
         <v>34</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>27</v>
@@ -7740,7 +8297,7 @@
         <v>182</v>
       </c>
       <c r="R2" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S2" s="73" t="s">
         <v>31</v>
@@ -7769,7 +8326,7 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6">
         <v>16</v>
@@ -7781,10 +8338,10 @@
         <v>34</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>27</v>
@@ -7793,13 +8350,13 @@
         <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="O3" s="29" t="s">
         <v>27</v>
@@ -7809,13 +8366,13 @@
         <v>183</v>
       </c>
       <c r="R3" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S3" s="73" t="s">
         <v>60</v>
       </c>
       <c r="T3" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U3" s="73" t="s">
         <v>51</v>
@@ -7836,9 +8393,9 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="6">
         <v>22</v>
@@ -7850,25 +8407,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O4" s="29" t="s">
         <v>27</v>
@@ -7878,13 +8435,13 @@
         <v>184</v>
       </c>
       <c r="R4" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S4" s="73" t="s">
         <v>31</v>
       </c>
       <c r="T4" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U4" s="73" t="s">
         <v>51</v>
@@ -7907,29 +8464,29 @@
     </row>
     <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="6">
         <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="O5" s="29" t="s">
         <v>27</v>
@@ -7939,13 +8496,13 @@
         <v>185</v>
       </c>
       <c r="R5" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S5" s="73" t="s">
         <v>60</v>
       </c>
       <c r="T5" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U5" s="73" t="s">
         <v>51</v>
@@ -7966,15 +8523,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="L6" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O6" s="29" t="s">
         <v>27</v>
@@ -7984,13 +8541,13 @@
         <v>186</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>60</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U6" s="75" t="s">
         <v>51</v>
@@ -8013,13 +8570,13 @@
     </row>
     <row r="7" spans="1:29" ht="57.6">
       <c r="L7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O7" s="29" t="s">
         <v>27</v>
@@ -8029,13 +8586,13 @@
         <v>187</v>
       </c>
       <c r="R7" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>60</v>
       </c>
       <c r="T7" s="75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U7" s="75" t="s">
         <v>51</v>
@@ -8053,31 +8610,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2">
+    <row r="8" spans="1:29" ht="43.15">
       <c r="L8" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>135</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>136</v>
       </c>
       <c r="P8" s="27"/>
       <c r="Q8" s="73">
         <v>188</v>
       </c>
       <c r="R8" s="73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S8" s="73" t="s">
         <v>60</v>
       </c>
       <c r="T8" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U8" s="73" t="s">
         <v>51</v>
@@ -8087,18 +8644,18 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="73">
         <v>189</v>
       </c>
       <c r="R9" s="73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S9" s="73" t="s">
         <v>60</v>
       </c>
       <c r="T9" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U9" s="73" t="s">
         <v>51</v>
@@ -8108,7 +8665,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -8117,7 +8674,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="31"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -8125,7 +8682,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="31"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8133,7 +8690,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="31"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8141,7 +8698,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="31"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8149,7 +8706,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="31"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8157,7 +8714,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="31"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8165,7 +8722,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="31"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8173,7 +8730,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="31"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8194,36 +8751,36 @@
       <selection activeCell="Y3" sqref="Y3:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8309,20 +8866,20 @@
         <v>51</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>27</v>
@@ -8335,13 +8892,13 @@
         <v>190</v>
       </c>
       <c r="R2" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S2" s="73" t="s">
         <v>60</v>
       </c>
       <c r="T2" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U2" s="73" t="s">
         <v>51</v>
@@ -8364,7 +8921,7 @@
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6">
         <v>11</v>
@@ -8376,23 +8933,23 @@
         <v>51</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>27</v>
@@ -8419,9 +8976,9 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="6">
         <v>70.5</v>
@@ -8433,10 +8990,10 @@
         <v>5.5</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>27</v>
@@ -8445,10 +9002,10 @@
         <v>27</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>27</v>
@@ -8480,7 +9037,7 @@
     </row>
     <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="6">
         <v>35</v>
@@ -8492,23 +9049,23 @@
         <v>35</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>27</v>
@@ -8537,28 +9094,28 @@
     </row>
     <row r="6" spans="1:29" ht="30">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6">
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="21" t="s">
@@ -8588,22 +9145,22 @@
     </row>
     <row r="7" spans="1:29" ht="57.6">
       <c r="G7" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="32"/>
@@ -8626,12 +9183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>27</v>
@@ -8654,12 +9211,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>27</v>
@@ -8677,12 +9234,12 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.899999999999999">
       <c r="G10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
@@ -8696,7 +9253,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -8705,7 +9262,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8713,7 +9270,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8721,7 +9278,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8729,7 +9286,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8737,7 +9294,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8745,7 +9302,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8753,7 +9310,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8770,21 +9327,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -8955,38 +9497,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED215CB4-F589-4F3C-9C04-F0898A4C2230}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED215CB4-F589-4F3C-9C04-F0898A4C2230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}"/>
 </file>
--- a/dataSources/WSR/OneTracker.xlsx
+++ b/dataSources/WSR/OneTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{BD973FC3-E8AF-475B-AE26-3E576A03CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65924E0B-F33E-4731-8135-C0FCBD90873F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52ADE6A-CEB2-4778-8BA1-196BE6126CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="178">
   <si>
     <t>Task Name</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>Call back verification</t>
+  </si>
+  <si>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
@@ -1527,40 +1530,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A99992-8CDC-4AFA-B5B9-1EA71B614833}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="41" t="s">
         <v>38</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="53"/>
       <c r="R8" s="54"/>
       <c r="S8" s="54"/>
@@ -1958,7 +1961,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -1969,7 +1972,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -1978,7 +1981,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -1987,7 +1990,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1995,7 +1998,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2003,7 +2006,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2011,7 +2014,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2019,7 +2022,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2027,7 +2030,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2035,7 +2038,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2062,37 +2065,37 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>4843</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>140</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="5" t="s">
         <v>150</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2477,7 +2480,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2492,7 +2495,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.899999999999999">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -2505,7 +2508,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -2514,7 +2517,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -2523,7 +2526,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2531,7 +2534,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2539,7 +2542,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2547,7 +2550,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2555,7 +2558,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2563,7 +2566,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2584,37 +2587,37 @@
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="10"/>
@@ -2973,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2993,7 +2996,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3008,7 +3011,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.899999999999999">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -3021,7 +3024,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -3030,7 +3033,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -3039,7 +3042,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3047,7 +3050,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3055,7 +3058,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3063,7 +3066,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3071,7 +3074,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3079,7 +3082,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3100,37 +3103,37 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -3509,7 +3512,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -3518,7 +3521,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -3527,7 +3530,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -3536,7 +3539,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -3545,7 +3548,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3553,7 +3556,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3561,7 +3564,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3569,7 +3572,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3577,7 +3580,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3585,7 +3588,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3606,37 +3609,37 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="38" t="s">
         <v>165</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4043,7 +4046,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4058,7 +4061,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.899999999999999">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4071,7 +4074,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -4080,7 +4083,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -4089,7 +4092,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4097,7 +4100,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4105,7 +4108,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4113,7 +4116,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4121,7 +4124,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4129,7 +4132,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4150,39 +4153,39 @@
       <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" style="2" customWidth="1"/>
-    <col min="26" max="27" width="8.85546875" style="2"/>
-    <col min="28" max="28" width="11.5703125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5546875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="8.88671875" style="2"/>
+    <col min="28" max="28" width="11.5546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="38" t="s">
         <v>149</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.75">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="38" t="s">
         <v>164</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75">
+    <row r="5" spans="1:29" ht="43.2">
       <c r="A5" s="38" t="s">
         <v>165</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="14.4">
       <c r="A6" s="38"/>
       <c r="B6" s="64"/>
       <c r="G6" s="10"/>
@@ -4511,7 +4514,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4545,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4565,7 +4568,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4580,7 +4583,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4593,7 +4596,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -4602,7 +4605,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -4611,7 +4614,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4619,7 +4622,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4627,7 +4630,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4635,7 +4638,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4643,7 +4646,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4651,7 +4654,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4668,43 +4671,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EE5121-7C9A-4A1F-A3AB-24FAF5596F94}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" style="2" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="2"/>
-    <col min="28" max="28" width="11.5703125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5546875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="2"/>
+    <col min="28" max="28" width="11.5546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4770,13 +4773,13 @@
       </c>
       <c r="AA1" s="66"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="AC1" s="65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -4833,7 +4836,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="45.75">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="38" t="s">
         <v>149</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>5413</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.75">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="38" t="s">
         <v>164</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75">
+    <row r="5" spans="1:29" ht="43.2">
       <c r="A5" s="38" t="s">
         <v>176</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" ht="14.4">
       <c r="A6" s="38" t="s">
         <v>150</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.75">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5057,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -5077,7 +5080,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -5092,7 +5095,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -5105,7 +5108,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -5114,7 +5117,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -5123,7 +5126,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5131,7 +5134,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5139,7 +5142,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5147,7 +5150,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5155,7 +5158,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5163,7 +5166,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5184,35 +5187,35 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5547,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -5558,7 +5561,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -5569,7 +5572,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -5578,7 +5581,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -5587,7 +5590,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5595,7 +5598,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5603,7 +5606,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5611,7 +5614,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5619,7 +5622,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5627,7 +5630,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5635,7 +5638,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5657,35 +5660,35 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -5963,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6008,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -6019,7 +6022,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -6030,7 +6033,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -6039,7 +6042,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -6048,7 +6051,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6056,7 +6059,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6064,7 +6067,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6072,7 +6075,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6080,7 +6083,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6088,7 +6091,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6096,7 +6099,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6118,35 +6121,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -6418,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6463,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -6474,7 +6477,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -6485,7 +6488,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -6494,7 +6497,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -6503,7 +6506,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6511,7 +6514,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6519,7 +6522,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6527,7 +6530,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6535,7 +6538,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6543,7 +6546,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6551,7 +6554,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6573,35 +6576,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6787,7 +6790,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6916,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -6927,7 +6930,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -6938,7 +6941,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -6947,7 +6950,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20" t="s">
         <v>27</v>
       </c>
@@ -6958,7 +6961,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6966,7 +6969,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6974,7 +6977,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6982,7 +6985,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6990,7 +6993,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6998,7 +7001,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7006,7 +7009,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7028,36 +7031,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="30">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -7245,7 +7248,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7395,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="22"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -7406,7 +7409,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
@@ -7417,7 +7420,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -7426,7 +7429,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -7434,7 +7437,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -7442,7 +7445,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -7450,7 +7453,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -7458,7 +7461,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7466,7 +7469,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7474,7 +7477,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7482,7 +7485,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7503,36 +7506,36 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="25" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="25"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="25" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="25"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="L6" s="10" t="s">
         <v>115</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.15">
+    <row r="8" spans="1:29" ht="43.2">
       <c r="L8" s="10" t="s">
         <v>92</v>
       </c>
@@ -7993,7 +7996,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="71">
         <v>189</v>
       </c>
@@ -8014,7 +8017,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -8023,7 +8026,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="R11" s="31"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -8031,7 +8034,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="31"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8039,7 +8042,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="31"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8047,7 +8050,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="31"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8055,7 +8058,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="31"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8063,7 +8066,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="31"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8071,7 +8074,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="31"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8079,7 +8082,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="31"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8100,36 +8103,36 @@
       <selection activeCell="Y3" sqref="Y3:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10" t="s">
         <v>117</v>
       </c>
@@ -8560,7 +8563,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10" t="s">
         <v>131</v>
       </c>
@@ -8583,7 +8586,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.899999999999999">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10" t="s">
         <v>80</v>
       </c>
@@ -8602,7 +8605,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -8611,7 +8614,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8619,7 +8622,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8627,7 +8630,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8635,7 +8638,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8643,7 +8646,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8651,7 +8654,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8659,7 +8662,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8683,36 +8686,36 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8914,7 +8917,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -9105,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="40" t="s">
         <v>80</v>
       </c>
@@ -9131,7 +9134,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10" t="s">
         <v>131</v>
       </c>
@@ -9152,7 +9155,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.899999999999999">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10" t="s">
         <v>80</v>
       </c>
@@ -9171,7 +9174,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -9180,7 +9183,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -9188,7 +9191,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -9196,7 +9199,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -9204,7 +9207,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -9212,7 +9215,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -9220,7 +9223,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -9228,7 +9231,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -9248,15 +9251,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -9433,14 +9427,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B510FF51-61E3-485E-9264-D023960FC08F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B510FF51-61E3-485E-9264-D023960FC08F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/OneTracker.xlsx
+++ b/dataSources/WSR/OneTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27321"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52ADE6A-CEB2-4778-8BA1-196BE6126CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{A466BAA1-99C7-4B7B-B795-F92D64864B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A870DB14-FD45-45EA-AAAF-FC1F7C22B4B8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
+    <sheet name="15 Jan 2024" sheetId="19" r:id="rId16"/>
+    <sheet name="22 Jan 2024" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="193">
   <si>
     <t>Task Name</t>
   </si>
@@ -635,6 +637,9 @@
     <t>Jira tickets/Bug retesting</t>
   </si>
   <si>
+    <t>Project Metrics</t>
+  </si>
+  <si>
     <t>19/01/2024</t>
   </si>
   <si>
@@ -646,7 +651,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>- (Purpose of Payment)</t>
     </r>
@@ -661,14 +666,56 @@
     <t>Call back verification</t>
   </si>
   <si>
-    <t>Project Metrics</t>
+    <t>Sanity test for Jan 22 release</t>
+  </si>
+  <si>
+    <t>Jira ticket/Bug retesting</t>
+  </si>
+  <si>
+    <t>CFU document review</t>
+  </si>
+  <si>
+    <t>Jira/Bug retesting</t>
+  </si>
+  <si>
+    <t>WMT-3230</t>
+  </si>
+  <si>
+    <t>Warning message is displayed as Swift BIC is not available in LED</t>
+  </si>
+  <si>
+    <t>Lipi</t>
+  </si>
+  <si>
+    <t> 29/01/2024</t>
+  </si>
+  <si>
+    <t>29/01/2024</t>
+  </si>
+  <si>
+    <t>WMT- 3232</t>
+  </si>
+  <si>
+    <t>User is able to edit Calendar in Read Only screens</t>
+  </si>
+  <si>
+    <t>CFU testing</t>
+  </si>
+  <si>
+    <t>Will start the testing once it is deployed.</t>
+  </si>
+  <si>
+    <t>WMT - 3275</t>
+  </si>
+  <si>
+    <t>User is able to Submit a ticket as Requestor and Callback Verifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,7 +761,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -794,7 +841,7 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -805,6 +852,67 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -828,7 +936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1010,11 +1118,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1236,6 +1353,74 @@
     <xf numFmtId="14" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1246,6 +1431,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1534,36 +1741,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -1648,13 +1855,13 @@
       <c r="E2" s="3">
         <v>53</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="109" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="50" t="s">
@@ -1703,7 +1910,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1716,9 +1923,9 @@
       <c r="E3" s="48">
         <v>53.5</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="84"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="43" t="s">
         <v>37</v>
       </c>
@@ -1767,7 +1974,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -1835,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -1897,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="G6" s="41" t="s">
         <v>38</v>
       </c>
@@ -1931,7 +2138,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="Q7" s="53"/>
       <c r="R7" s="54"/>
       <c r="S7" s="54"/>
@@ -1950,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="53"/>
       <c r="R8" s="54"/>
       <c r="S8" s="54"/>
@@ -1961,7 +2168,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -1972,7 +2179,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -1981,7 +2188,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -1990,7 +2197,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1998,7 +2205,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2006,7 +2213,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2014,7 +2221,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2022,7 +2229,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2030,7 +2237,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2038,7 +2245,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2065,37 +2272,37 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="30">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2234,7 +2441,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="38" t="s">
         <v>146</v>
       </c>
@@ -2291,7 +2498,7 @@
         <v>4843</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="38" t="s">
         <v>140</v>
       </c>
@@ -2348,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="38" t="s">
         <v>149</v>
       </c>
@@ -2393,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="A6" s="5" t="s">
         <v>150</v>
       </c>
@@ -2432,7 +2639,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2460,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2480,7 +2687,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2495,7 +2702,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -2508,7 +2715,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -2517,7 +2724,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -2526,7 +2733,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2534,7 +2741,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2542,7 +2749,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2550,7 +2757,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2558,7 +2765,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2566,7 +2773,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2587,37 +2794,37 @@
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +2896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2750,7 +2957,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="38" t="s">
         <v>152</v>
       </c>
@@ -2807,7 +3014,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -2866,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="5" t="s">
         <v>150</v>
       </c>
@@ -2913,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="10"/>
@@ -2948,7 +3155,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2976,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2996,7 +3203,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3011,7 +3218,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -3024,7 +3231,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -3033,7 +3240,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -3042,7 +3249,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3050,7 +3257,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3058,7 +3265,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3066,7 +3273,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3074,7 +3281,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3082,7 +3289,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3103,37 +3310,37 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3266,7 +3473,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="38" t="s">
         <v>152</v>
       </c>
@@ -3325,7 +3532,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -3384,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="38" t="s">
         <v>159</v>
       </c>
@@ -3437,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30">
+    <row r="6" spans="1:29" ht="30.6">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="24" t="s">
@@ -3480,7 +3687,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="P7" s="32"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
@@ -3498,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -3512,7 +3719,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -3521,7 +3728,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -3530,7 +3737,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -3539,7 +3746,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -3548,7 +3755,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3556,7 +3763,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3564,7 +3771,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3572,7 +3779,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3580,7 +3787,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3588,7 +3795,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3609,37 +3816,37 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3711,7 +3918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3772,7 +3979,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="38" t="s">
         <v>152</v>
       </c>
@@ -3829,7 +4036,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -3888,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="38" t="s">
         <v>164</v>
       </c>
@@ -3939,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="A6" s="38" t="s">
         <v>165</v>
       </c>
@@ -3992,7 +4199,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4026,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4046,7 +4253,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4061,7 +4268,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4074,7 +4281,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -4083,7 +4290,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -4092,7 +4299,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4100,7 +4307,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4108,7 +4315,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4116,7 +4323,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4124,7 +4331,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4132,7 +4339,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4153,39 +4360,39 @@
       <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5546875" style="2" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="11.5546875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="8.85546875" style="2"/>
+    <col min="28" max="28" width="11.5703125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -4322,7 +4529,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="38" t="s">
         <v>149</v>
       </c>
@@ -4377,7 +4584,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8">
+    <row r="4" spans="1:29" ht="29.1">
       <c r="A4" s="38" t="s">
         <v>164</v>
       </c>
@@ -4432,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2">
+    <row r="5" spans="1:29" ht="43.5">
       <c r="A5" s="38" t="s">
         <v>165</v>
       </c>
@@ -4475,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="A6" s="38"/>
       <c r="B6" s="64"/>
       <c r="G6" s="10"/>
@@ -4514,7 +4721,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8">
+    <row r="7" spans="1:29" ht="29.1">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4548,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4568,7 +4775,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4583,7 +4790,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4596,7 +4803,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -4605,7 +4812,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -4614,7 +4821,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4622,7 +4829,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4630,7 +4837,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4638,7 +4845,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4646,7 +4853,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4654,7 +4861,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4671,43 +4878,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EE5121-7C9A-4A1F-A3AB-24FAF5596F94}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5546875" style="2" customWidth="1"/>
-    <col min="26" max="27" width="9.109375" style="2"/>
-    <col min="28" max="28" width="11.5546875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="11.5703125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4773,13 +4980,13 @@
       </c>
       <c r="AA1" s="66"/>
       <c r="AB1" s="36" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AC1" s="65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -4807,7 +5014,7 @@
         <v>81</v>
       </c>
       <c r="N2" s="62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>27</v>
@@ -4836,7 +5043,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="38" t="s">
         <v>149</v>
       </c>
@@ -4850,7 +5057,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>74</v>
@@ -4866,7 +5073,7 @@
         <v>81</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>27</v>
@@ -4893,7 +5100,7 @@
         <v>5413</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8">
+    <row r="4" spans="1:29" ht="29.1">
       <c r="A4" s="38" t="s">
         <v>164</v>
       </c>
@@ -4907,7 +5114,7 @@
         <v>2.5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>74</v>
@@ -4925,7 +5132,7 @@
         <v>81</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="24"/>
@@ -4950,9 +5157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2">
+    <row r="5" spans="1:29" ht="43.5">
       <c r="A5" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B5" s="64">
         <v>12</v>
@@ -4964,7 +5171,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>27</v>
@@ -4995,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="A6" s="38" t="s">
         <v>150</v>
       </c>
@@ -5032,7 +5239,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8">
+    <row r="7" spans="1:29" ht="29.1">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5060,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -5080,7 +5287,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -5095,7 +5302,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -5108,7 +5315,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -5117,7 +5324,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -5126,7 +5333,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5134,7 +5341,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5142,7 +5349,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5150,7 +5357,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5158,7 +5365,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5166,7 +5373,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5175,6 +5382,1497 @@
       <c r="W18" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543E1424-243D-4A07-87C2-454EED260585}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="86"/>
+      <c r="G1" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="86"/>
+      <c r="L1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC1" s="88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="76.5">
+      <c r="A2" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="91">
+        <v>1</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="84">
+        <v>14</v>
+      </c>
+      <c r="F2" s="86"/>
+      <c r="G2" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="94">
+        <v>45316</v>
+      </c>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="98">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="99">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="76.5">
+      <c r="A3" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="91">
+        <v>24</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="84">
+        <v>22</v>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="98">
+        <v>90</v>
+      </c>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="99">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="59.45" thickBot="1">
+      <c r="A4" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="91">
+        <v>3</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="84">
+        <v>2</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72.95" thickBot="1">
+      <c r="A5" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="91">
+        <v>10</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="44.1" thickBot="1">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="99">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58.5" thickBot="1">
+      <c r="A7" s="86"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15" thickBot="1">
+      <c r="A8" s="86"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+    </row>
+    <row r="10" spans="1:29" ht="17.100000000000001" thickBot="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+    </row>
+    <row r="11" spans="1:29" ht="15" thickBot="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" thickBot="1">
+      <c r="A12" s="86"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="86"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="86"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="86"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="86"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="86"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="86"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19281029-4EFB-438E-AB9D-C129F303978E}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="34.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="86"/>
+      <c r="G1" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="86"/>
+      <c r="L1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC1" s="88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="75" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="91">
+        <v>1</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="84">
+        <v>29</v>
+      </c>
+      <c r="F2" s="86"/>
+      <c r="G2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="77">
+        <v>45323</v>
+      </c>
+      <c r="O2" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="V2" s="97"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="99">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="91">
+        <v>55</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="84">
+        <v>29</v>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="V3" s="97"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="98">
+        <v>110</v>
+      </c>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="99">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="91.5">
+      <c r="A4" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="91">
+        <v>4</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="84">
+        <v>2</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="119"/>
+      <c r="O4" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="T4" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="V4" s="97"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="106">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="99">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58.5" thickBot="1">
+      <c r="A7" s="86"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15" thickBot="1">
+      <c r="A8" s="86"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+    </row>
+    <row r="10" spans="1:29" ht="17.100000000000001" thickBot="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+    </row>
+    <row r="11" spans="1:29" ht="15" thickBot="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" thickBot="1">
+      <c r="A12" s="86"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="86"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="86"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="86"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="86"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="86"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="86"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5187,35 +6885,35 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5287,7 +6985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -5347,7 +7045,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -5403,7 +7101,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -5453,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -5505,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5531,7 +7229,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -5550,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -5561,7 +7259,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -5572,7 +7270,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -5581,7 +7279,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -5590,7 +7288,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5598,7 +7296,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5606,7 +7304,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5614,7 +7312,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5622,7 +7320,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5630,7 +7328,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5638,7 +7336,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5660,35 +7358,35 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5824,7 +7522,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -5880,7 +7578,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -5926,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
@@ -5966,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5992,7 +7690,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -6011,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -6022,7 +7720,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -6033,7 +7731,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -6042,7 +7740,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -6051,7 +7749,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6059,7 +7757,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6067,7 +7765,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6075,7 +7773,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6083,7 +7781,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6091,7 +7789,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6099,7 +7797,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6121,35 +7819,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6221,7 +7919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6279,7 +7977,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -6335,7 +8033,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -6381,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
@@ -6421,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6447,7 +8145,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -6466,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -6477,7 +8175,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -6488,7 +8186,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -6497,7 +8195,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -6506,7 +8204,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6514,7 +8212,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6522,7 +8220,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6530,7 +8228,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6538,7 +8236,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6546,7 +8244,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6554,7 +8252,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6576,35 +8274,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6676,7 +8374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6734,7 +8432,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -6790,7 +8488,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -6840,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -6874,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6900,7 +8598,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="Q7" s="17"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -6919,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -6930,7 +8628,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -6941,7 +8639,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -6950,7 +8648,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="20" t="s">
         <v>27</v>
       </c>
@@ -6961,7 +8659,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6969,7 +8667,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6977,7 +8675,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6985,7 +8683,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6993,7 +8691,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7001,7 +8699,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7009,7 +8707,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7031,36 +8729,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7191,7 +8889,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -7248,7 +8946,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -7299,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -7340,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7379,7 +9077,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="Q7" s="22"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
@@ -7398,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="Q8" s="22"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -7409,7 +9107,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
@@ -7420,7 +9118,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -7429,7 +9127,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -7437,7 +9135,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -7445,7 +9143,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -7453,7 +9151,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -7461,7 +9159,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7469,7 +9167,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7477,7 +9175,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7485,7 +9183,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7506,36 +9204,36 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="25" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="25"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="25"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7607,7 +9305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.1">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -7676,7 +9374,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -7745,7 +9443,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -7814,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="5" t="s">
         <v>111</v>
       </c>
@@ -7875,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29.1">
       <c r="L6" s="10" t="s">
         <v>115</v>
       </c>
@@ -7920,7 +9618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="L7" s="10" t="s">
         <v>117</v>
       </c>
@@ -7962,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2">
+    <row r="8" spans="1:29" ht="43.5">
       <c r="L8" s="10" t="s">
         <v>92</v>
       </c>
@@ -7996,7 +9694,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="Q9" s="71">
         <v>189</v>
       </c>
@@ -8017,7 +9715,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -8026,7 +9724,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="31"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -8034,7 +9732,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="31"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8042,7 +9740,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="31"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8050,7 +9748,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="31"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8058,7 +9756,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="31"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8066,7 +9764,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="31"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8074,7 +9772,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="31"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8082,7 +9780,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="31"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8103,36 +9801,36 @@
       <selection activeCell="Y3" sqref="Y3:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8271,7 +9969,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -8328,7 +10026,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -8387,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="5" t="s">
         <v>111</v>
       </c>
@@ -8495,7 +10193,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="G7" s="10" t="s">
         <v>128</v>
       </c>
@@ -8535,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="G8" s="10" t="s">
         <v>117</v>
       </c>
@@ -8563,7 +10261,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10" t="s">
         <v>131</v>
       </c>
@@ -8586,7 +10284,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="30">
       <c r="G10" s="10" t="s">
         <v>80</v>
       </c>
@@ -8605,7 +10303,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -8614,7 +10312,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8622,7 +10320,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8630,7 +10328,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8638,7 +10336,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8646,7 +10344,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8654,7 +10352,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8662,7 +10360,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8686,36 +10384,36 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8852,7 +10550,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -8917,7 +10615,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -8974,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="57.95">
       <c r="A5" s="5" t="s">
         <v>111</v>
       </c>
@@ -9068,7 +10766,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.95">
       <c r="A7" s="5" t="s">
         <v>129</v>
       </c>
@@ -9108,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" ht="29.1">
       <c r="G8" s="40" t="s">
         <v>80</v>
       </c>
@@ -9134,7 +10832,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="G9" s="10" t="s">
         <v>131</v>
       </c>
@@ -9155,7 +10853,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="30">
       <c r="G10" s="10" t="s">
         <v>80</v>
       </c>
@@ -9174,7 +10872,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -9183,7 +10881,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -9191,7 +10889,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -9199,7 +10897,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -9207,7 +10905,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -9215,7 +10913,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -9223,7 +10921,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -9231,7 +10929,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -9245,12 +10943,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -9427,7 +11119,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9436,38 +11128,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B510FF51-61E3-485E-9264-D023960FC08F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B510FF51-61E3-485E-9264-D023960FC08F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}"/>
 </file>
--- a/dataSources/WSR/OneTracker.xlsx
+++ b/dataSources/WSR/OneTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{A466BAA1-99C7-4B7B-B795-F92D64864B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A870DB14-FD45-45EA-AAAF-FC1F7C22B4B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3671FA78-4F79-40F6-8E32-BE9043DA6043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -1421,6 +1421,22 @@
     <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1438,22 +1454,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,36 +1741,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -1855,13 +1855,13 @@
       <c r="E2" s="3">
         <v>53</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="115" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="50" t="s">
@@ -1910,7 +1910,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1923,9 +1923,9 @@
       <c r="E3" s="48">
         <v>53.5</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="110"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="43" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="41" t="s">
         <v>38</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="Q7" s="53"/>
       <c r="R7" s="54"/>
       <c r="S7" s="54"/>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="53"/>
       <c r="R8" s="54"/>
       <c r="S8" s="54"/>
@@ -2168,7 +2168,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -2179,7 +2179,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -2188,7 +2188,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -2197,7 +2197,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2205,7 +2205,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2213,7 +2213,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2221,7 +2221,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2229,7 +2229,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2237,7 +2237,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2245,7 +2245,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2272,37 +2272,37 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="38" t="s">
         <v>146</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>4843</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>140</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="38" t="s">
         <v>149</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="5" t="s">
         <v>150</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2687,7 +2687,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2702,7 +2702,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -2715,7 +2715,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -2724,7 +2724,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -2733,7 +2733,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2741,7 +2741,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2749,7 +2749,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2757,7 +2757,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2765,7 +2765,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2773,7 +2773,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2794,37 +2794,37 @@
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="38" t="s">
         <v>152</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
         <v>150</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="10"/>
@@ -3155,7 +3155,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3203,7 +3203,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3218,7 +3218,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -3231,7 +3231,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -3240,7 +3240,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -3249,7 +3249,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3257,7 +3257,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3265,7 +3265,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3273,7 +3273,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3281,7 +3281,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3289,7 +3289,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3310,37 +3310,37 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="38" t="s">
         <v>152</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="38" t="s">
         <v>159</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.6">
+    <row r="6" spans="1:29" ht="30">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="24" t="s">
@@ -3687,7 +3687,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="P7" s="32"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -3719,7 +3719,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -3728,7 +3728,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -3737,7 +3737,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -3746,7 +3746,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -3755,7 +3755,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3763,7 +3763,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3771,7 +3771,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3779,7 +3779,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3787,7 +3787,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3795,7 +3795,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3812,41 +3812,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225B4E4E-F557-415E-AD16-582F7AD941AC}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3912,13 +3912,13 @@
       </c>
       <c r="AA1" s="66"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC1" s="88" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="38" t="s">
         <v>152</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="38" t="s">
         <v>164</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="38" t="s">
         <v>165</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4253,7 +4253,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4268,7 +4268,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4281,7 +4281,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -4290,7 +4290,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -4299,7 +4299,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4307,7 +4307,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4315,7 +4315,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4323,7 +4323,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4331,7 +4331,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4339,7 +4339,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4357,42 +4357,42 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" style="2" customWidth="1"/>
-    <col min="26" max="27" width="8.85546875" style="2"/>
-    <col min="28" max="28" width="11.5703125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5546875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="8.88671875" style="2"/>
+    <col min="28" max="28" width="11.5546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4458,13 +4458,13 @@
       </c>
       <c r="AA1" s="66"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC1" s="88" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="38" t="s">
         <v>149</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="29.1">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="38" t="s">
         <v>164</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5">
+    <row r="5" spans="1:29" ht="43.2">
       <c r="A5" s="38" t="s">
         <v>165</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.45">
+    <row r="6" spans="1:29" ht="14.4">
       <c r="A6" s="38"/>
       <c r="B6" s="64"/>
       <c r="G6" s="10"/>
@@ -4721,7 +4721,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29.1">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4775,7 +4775,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4790,7 +4790,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4803,7 +4803,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -4812,7 +4812,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -4821,7 +4821,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4829,7 +4829,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4837,7 +4837,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4845,7 +4845,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4853,7 +4853,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4861,7 +4861,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4882,39 +4882,39 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" style="2" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="2"/>
-    <col min="28" max="28" width="11.5703125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5546875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="2"/>
+    <col min="28" max="28" width="11.5546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="38" t="s">
         <v>149</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>5413</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="29.1">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="38" t="s">
         <v>164</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5">
+    <row r="5" spans="1:29" ht="43.2">
       <c r="A5" s="38" t="s">
         <v>177</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.45">
+    <row r="6" spans="1:29" ht="14.4">
       <c r="A6" s="38" t="s">
         <v>150</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29.1">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -5287,7 +5287,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -5302,7 +5302,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -5315,7 +5315,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -5324,7 +5324,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -5333,7 +5333,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5341,7 +5341,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5349,7 +5349,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5357,7 +5357,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5365,7 +5365,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5373,7 +5373,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5390,18 +5390,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543E1424-243D-4A07-87C2-454EED260585}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
-    <col min="18" max="18" width="35.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="18" max="18" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15">
+    <row r="1" spans="1:29">
       <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
@@ -5442,13 +5442,13 @@
         <v>11</v>
       </c>
       <c r="P1" s="86"/>
-      <c r="Q1" s="115" t="s">
+      <c r="Q1" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="115" t="s">
+      <c r="R1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="118" t="s">
+      <c r="S1" s="112" t="s">
         <v>14</v>
       </c>
       <c r="T1" s="83" t="s">
@@ -5478,7 +5478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="76.5">
+    <row r="2" spans="1:29" ht="72">
       <c r="A2" s="90" t="s">
         <v>23</v>
       </c>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="O2" s="95"/>
       <c r="P2" s="96"/>
-      <c r="Q2" s="116"/>
+      <c r="Q2" s="110"/>
       <c r="R2" s="80" t="s">
         <v>86</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="76.5">
+    <row r="3" spans="1:29" ht="72">
       <c r="A3" s="90" t="s">
         <v>143</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="59.45" thickBot="1">
+    <row r="4" spans="1:29" ht="59.4" thickBot="1">
       <c r="A4" s="90" t="s">
         <v>164</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.95" thickBot="1">
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1">
       <c r="A5" s="90" t="s">
         <v>179</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="44.1" thickBot="1">
+    <row r="6" spans="1:29" ht="29.4" thickBot="1">
       <c r="A6" s="103"/>
       <c r="B6" s="104"/>
       <c r="C6" s="86"/>
@@ -5721,7 +5721,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.5" thickBot="1">
+    <row r="7" spans="1:29" ht="58.2" thickBot="1">
       <c r="A7" s="86"/>
       <c r="B7" s="102"/>
       <c r="C7" s="86"/>
@@ -5818,7 +5818,7 @@
       <c r="AB9" s="86"/>
       <c r="AC9" s="86"/>
     </row>
-    <row r="10" spans="1:29" ht="17.100000000000001" thickBot="1">
+    <row r="10" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A10" s="86"/>
       <c r="B10" s="102"/>
       <c r="C10" s="86"/>
@@ -5842,8 +5842,8 @@
       <c r="U10" s="57"/>
       <c r="V10" s="105"/>
       <c r="W10" s="83"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="114"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="120"/>
       <c r="Z10" s="86"/>
       <c r="AA10" s="86"/>
       <c r="AB10" s="86"/>
@@ -5873,8 +5873,8 @@
       <c r="U11" s="57"/>
       <c r="V11" s="105"/>
       <c r="W11" s="83"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="114"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="120"/>
       <c r="Z11" s="86"/>
       <c r="AA11" s="86"/>
       <c r="AB11" s="86"/>
@@ -5904,8 +5904,8 @@
       <c r="U12" s="57"/>
       <c r="V12" s="83"/>
       <c r="W12" s="83"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="114"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="120"/>
       <c r="Z12" s="86"/>
       <c r="AA12" s="86"/>
       <c r="AB12" s="86"/>
@@ -5935,8 +5935,8 @@
       <c r="U13" s="83"/>
       <c r="V13" s="83"/>
       <c r="W13" s="83"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="114"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="120"/>
       <c r="Z13" s="86"/>
       <c r="AA13" s="86"/>
       <c r="AB13" s="86"/>
@@ -5966,8 +5966,8 @@
       <c r="U14" s="83"/>
       <c r="V14" s="83"/>
       <c r="W14" s="83"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="114"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="120"/>
       <c r="Z14" s="86"/>
       <c r="AA14" s="86"/>
       <c r="AB14" s="86"/>
@@ -5997,8 +5997,8 @@
       <c r="U15" s="83"/>
       <c r="V15" s="83"/>
       <c r="W15" s="83"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="114"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="120"/>
       <c r="Z15" s="86"/>
       <c r="AA15" s="86"/>
       <c r="AB15" s="86"/>
@@ -6028,8 +6028,8 @@
       <c r="U16" s="83"/>
       <c r="V16" s="83"/>
       <c r="W16" s="83"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="114"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="120"/>
       <c r="Z16" s="86"/>
       <c r="AA16" s="86"/>
       <c r="AB16" s="86"/>
@@ -6059,8 +6059,8 @@
       <c r="U17" s="83"/>
       <c r="V17" s="83"/>
       <c r="W17" s="83"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="114"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="120"/>
       <c r="Z17" s="86"/>
       <c r="AA17" s="86"/>
       <c r="AB17" s="86"/>
@@ -6090,8 +6090,8 @@
       <c r="U18" s="83"/>
       <c r="V18" s="83"/>
       <c r="W18" s="83"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="114"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="120"/>
       <c r="Z18" s="86"/>
       <c r="AA18" s="86"/>
       <c r="AB18" s="86"/>
@@ -6117,19 +6117,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19281029-4EFB-438E-AB9D-C129F303978E}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="34.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="18" max="18" width="34.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15">
+    <row r="1" spans="1:29">
       <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
@@ -6241,14 +6241,14 @@
       <c r="N2" s="77">
         <v>45323</v>
       </c>
-      <c r="O2" s="120" t="s">
+      <c r="O2" s="114" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="96"/>
-      <c r="Q2" s="116" t="s">
+      <c r="Q2" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="R2" s="111" t="s">
         <v>183</v>
       </c>
       <c r="S2" s="81" t="s">
@@ -6277,7 +6277,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="90" t="s">
         <v>140</v>
       </c>
@@ -6301,7 +6301,7 @@
       <c r="I3" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="119"/>
+      <c r="J3" s="113"/>
       <c r="K3" s="86"/>
       <c r="L3" s="10" t="s">
         <v>147</v>
@@ -6348,7 +6348,7 @@
         <v>5613</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="91.5">
+    <row r="4" spans="1:29" ht="87.6">
       <c r="A4" s="90" t="s">
         <v>180</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="M4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="119"/>
+      <c r="N4" s="113"/>
       <c r="O4" s="8" t="s">
         <v>190</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="90"/>
       <c r="B5" s="91"/>
       <c r="C5" s="86"/>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="103"/>
       <c r="B6" s="104"/>
       <c r="C6" s="86"/>
@@ -6485,7 +6485,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.5" thickBot="1">
+    <row r="7" spans="1:29" ht="58.2" thickBot="1">
       <c r="A7" s="86"/>
       <c r="B7" s="102"/>
       <c r="C7" s="86"/>
@@ -6582,7 +6582,7 @@
       <c r="AB9" s="86"/>
       <c r="AC9" s="86"/>
     </row>
-    <row r="10" spans="1:29" ht="17.100000000000001" thickBot="1">
+    <row r="10" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A10" s="86"/>
       <c r="B10" s="102"/>
       <c r="C10" s="86"/>
@@ -6606,8 +6606,8 @@
       <c r="U10" s="57"/>
       <c r="V10" s="105"/>
       <c r="W10" s="83"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="114"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="120"/>
       <c r="Z10" s="86"/>
       <c r="AA10" s="86"/>
       <c r="AB10" s="86"/>
@@ -6637,8 +6637,8 @@
       <c r="U11" s="57"/>
       <c r="V11" s="105"/>
       <c r="W11" s="83"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="114"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="120"/>
       <c r="Z11" s="86"/>
       <c r="AA11" s="86"/>
       <c r="AB11" s="86"/>
@@ -6668,8 +6668,8 @@
       <c r="U12" s="57"/>
       <c r="V12" s="83"/>
       <c r="W12" s="83"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="114"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="120"/>
       <c r="Z12" s="86"/>
       <c r="AA12" s="86"/>
       <c r="AB12" s="86"/>
@@ -6699,8 +6699,8 @@
       <c r="U13" s="83"/>
       <c r="V13" s="83"/>
       <c r="W13" s="83"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="114"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="120"/>
       <c r="Z13" s="86"/>
       <c r="AA13" s="86"/>
       <c r="AB13" s="86"/>
@@ -6730,8 +6730,8 @@
       <c r="U14" s="83"/>
       <c r="V14" s="83"/>
       <c r="W14" s="83"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="114"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="120"/>
       <c r="Z14" s="86"/>
       <c r="AA14" s="86"/>
       <c r="AB14" s="86"/>
@@ -6761,8 +6761,8 @@
       <c r="U15" s="83"/>
       <c r="V15" s="83"/>
       <c r="W15" s="83"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="114"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="120"/>
       <c r="Z15" s="86"/>
       <c r="AA15" s="86"/>
       <c r="AB15" s="86"/>
@@ -6792,8 +6792,8 @@
       <c r="U16" s="83"/>
       <c r="V16" s="83"/>
       <c r="W16" s="83"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="114"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="120"/>
       <c r="Z16" s="86"/>
       <c r="AA16" s="86"/>
       <c r="AB16" s="86"/>
@@ -6823,8 +6823,8 @@
       <c r="U17" s="83"/>
       <c r="V17" s="83"/>
       <c r="W17" s="83"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="114"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="120"/>
       <c r="Z17" s="86"/>
       <c r="AA17" s="86"/>
       <c r="AB17" s="86"/>
@@ -6854,8 +6854,8 @@
       <c r="U18" s="83"/>
       <c r="V18" s="83"/>
       <c r="W18" s="83"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="114"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="120"/>
       <c r="Z18" s="86"/>
       <c r="AA18" s="86"/>
       <c r="AB18" s="86"/>
@@ -6885,35 +6885,35 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7229,7 +7229,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -7259,7 +7259,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -7270,7 +7270,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -7279,7 +7279,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -7288,7 +7288,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -7296,7 +7296,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -7304,7 +7304,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -7312,7 +7312,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7320,7 +7320,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7328,7 +7328,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7336,7 +7336,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7358,35 +7358,35 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7690,7 +7690,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -7720,7 +7720,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -7731,7 +7731,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -7740,7 +7740,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -7749,7 +7749,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -7757,7 +7757,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -7765,7 +7765,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -7773,7 +7773,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7781,7 +7781,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7789,7 +7789,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7797,7 +7797,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7819,35 +7819,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -8145,7 +8145,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -8175,7 +8175,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -8186,7 +8186,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -8195,7 +8195,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -8204,7 +8204,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8212,7 +8212,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8220,7 +8220,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8228,7 +8228,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8236,7 +8236,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8244,7 +8244,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8252,7 +8252,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8274,35 +8274,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -8598,7 +8598,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="Q7" s="17"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -8628,7 +8628,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -8639,7 +8639,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -8648,7 +8648,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20" t="s">
         <v>27</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8667,7 +8667,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8675,7 +8675,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8683,7 +8683,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8691,7 +8691,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8699,7 +8699,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8707,7 +8707,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8729,36 +8729,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -9077,7 +9077,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="Q7" s="22"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="Q8" s="22"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -9107,7 +9107,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
@@ -9118,7 +9118,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -9127,7 +9127,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -9135,7 +9135,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -9143,7 +9143,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -9151,7 +9151,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -9159,7 +9159,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -9167,7 +9167,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -9175,7 +9175,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -9183,7 +9183,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -9204,36 +9204,36 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="25" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="25"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="25" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="25"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.1">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
         <v>111</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.1">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="L6" s="10" t="s">
         <v>115</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="L7" s="10" t="s">
         <v>117</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5">
+    <row r="8" spans="1:29" ht="43.2">
       <c r="L8" s="10" t="s">
         <v>92</v>
       </c>
@@ -9694,7 +9694,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="Q9" s="71">
         <v>189</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -9724,7 +9724,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="R11" s="31"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -9732,7 +9732,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="31"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -9740,7 +9740,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="31"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -9748,7 +9748,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="31"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -9756,7 +9756,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="31"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -9764,7 +9764,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="31"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -9772,7 +9772,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="31"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -9780,7 +9780,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="31"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -9801,36 +9801,36 @@
       <selection activeCell="Y3" sqref="Y3:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
         <v>111</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="G7" s="10" t="s">
         <v>128</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10" t="s">
         <v>117</v>
       </c>
@@ -10261,7 +10261,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10" t="s">
         <v>131</v>
       </c>
@@ -10284,7 +10284,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="30">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10" t="s">
         <v>80</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -10312,7 +10312,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -10320,7 +10320,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -10328,7 +10328,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -10336,7 +10336,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -10344,7 +10344,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -10352,7 +10352,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -10360,7 +10360,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -10384,36 +10384,36 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.95">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="5" t="s">
         <v>111</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.95">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="5" t="s">
         <v>129</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29.1">
+    <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="40" t="s">
         <v>80</v>
       </c>
@@ -10832,7 +10832,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10" t="s">
         <v>131</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="30">
+    <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10" t="s">
         <v>80</v>
       </c>
@@ -10872,7 +10872,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -10881,7 +10881,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -10889,7 +10889,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -10897,7 +10897,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -10905,7 +10905,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -10913,7 +10913,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -10921,7 +10921,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -10929,7 +10929,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -10943,6 +10943,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -11119,29 +11134,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B510FF51-61E3-485E-9264-D023960FC08F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B510FF51-61E3-485E-9264-D023960FC08F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/OneTracker.xlsx
+++ b/dataSources/WSR/OneTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3671FA78-4F79-40F6-8E32-BE9043DA6043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFB19F2-8D42-4AE1-A987-DDBE8C16DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="187">
   <si>
     <t>Task Name</t>
   </si>
@@ -111,18 +111,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Week Data Type</t>
-  </si>
-  <si>
-    <t>Week Count</t>
-  </si>
-  <si>
-    <t>Total Data Type</t>
-  </si>
-  <si>
-    <t>Total Count</t>
-  </si>
-  <si>
     <t>Meetings</t>
   </si>
   <si>
@@ -156,12 +144,6 @@
     <t>Nikhil Garg</t>
   </si>
   <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
-  </si>
-  <si>
     <t>Kathir</t>
   </si>
   <si>
@@ -186,12 +168,6 @@
     <t>To be tested once Dev provides fix</t>
   </si>
   <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
     <t>Reprocessing</t>
   </si>
   <si>
@@ -216,12 +192,6 @@
     <t>Garg, Nikhil</t>
   </si>
   <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
-  </si>
-  <si>
     <t>Swift Payment testing</t>
   </si>
   <si>
@@ -229,21 +199,6 @@
   </si>
   <si>
     <t>In PPT it is mentioned that only Processor and Approver can see this page</t>
-  </si>
-  <si>
-    <t>Automation execution</t>
-  </si>
-  <si>
-    <t>Total automation execution</t>
-  </si>
-  <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total bugs</t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
   </si>
   <si>
     <t>1 issue raised, 13 closed.</t>
@@ -637,9 +592,6 @@
     <t>Jira tickets/Bug retesting</t>
   </si>
   <si>
-    <t>Project Metrics</t>
-  </si>
-  <si>
     <t>19/01/2024</t>
   </si>
   <si>
@@ -710,12 +662,42 @@
   <si>
     <t>User is able to Submit a ticket as Requestor and Callback Verifier</t>
   </si>
+  <si>
+    <t>Manual test cases created</t>
+  </si>
+  <si>
+    <t>Manual test cases conducted</t>
+  </si>
+  <si>
+    <t>Automation test cases created</t>
+  </si>
+  <si>
+    <t>Automation test cases processed</t>
+  </si>
+  <si>
+    <t>Bugs identified</t>
+  </si>
+  <si>
+    <t>Automation coverage</t>
+  </si>
+  <si>
+    <t>Activity This Week</t>
+  </si>
+  <si>
+    <t>Count.</t>
+  </si>
+  <si>
+    <t>Project Metrics Since Inception</t>
+  </si>
+  <si>
+    <t>Count..</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,14 +837,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1131,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1313,8 +1287,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1363,28 +1335,25 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,7 +1365,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,10 +1374,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,10 +1400,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1737,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A99992-8CDC-4AFA-B5B9-1EA71B614833}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -1829,293 +1798,293 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>53</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" s="43" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="45">
         <v>45209</v>
       </c>
       <c r="O2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="69">
+        <v>177</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="71">
+      <c r="T2" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="R2" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6">
         <v>61.5</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="48">
         <v>53.5</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="116"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="69">
+        <v>178</v>
+      </c>
+      <c r="R3" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="69"/>
+      <c r="W3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
+        <v>233</v>
+      </c>
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.8">
+      <c r="A4" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="71">
-        <v>178</v>
-      </c>
-      <c r="R3" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="71"/>
-      <c r="W3" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
-        <v>233</v>
-      </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="43.2">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="B4" s="6">
         <v>24</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="46">
         <v>6</v>
       </c>
       <c r="G4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="69">
+        <v>179</v>
+      </c>
+      <c r="R4" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="28.8">
+      <c r="A5" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="71">
-        <v>179</v>
-      </c>
-      <c r="R4" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="B5" s="6">
         <v>32</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" s="46">
         <v>12</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I5" s="45">
         <v>45209</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="Q5" s="71">
+      <c r="Q5" s="69">
         <v>180</v>
       </c>
-      <c r="R5" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
+      <c r="R5" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="28.8">
       <c r="G6" s="41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="53"/>
       <c r="R6" s="54"/>
@@ -2124,21 +2093,21 @@
       <c r="U6" s="54"/>
       <c r="V6" s="19"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
         <v>4</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="Q7" s="53"/>
       <c r="R7" s="54"/>
       <c r="S7" s="54"/>
@@ -2146,13 +2115,13 @@
       <c r="U7" s="54"/>
       <c r="V7" s="19"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -2268,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCA146-0416-40F0-90B6-EB38E20D146C}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -2361,120 +2330,120 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="16.8">
+      <c r="A2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>40</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="49" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N2" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="24"/>
-      <c r="Q2" s="71">
+      <c r="Q2" s="69">
         <v>193</v>
       </c>
-      <c r="R2" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>33</v>
+      <c r="R2" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>29</v>
       </c>
       <c r="V2" s="35"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
         <v>56</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="38" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B3" s="6">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="49" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="55" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="56"/>
@@ -2484,54 +2453,54 @@
       <c r="U3" s="57"/>
       <c r="V3" s="35"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>120</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4843</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="14.4">
       <c r="A4" s="38" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B4" s="6">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>1.5</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I4" s="44">
         <v>45272</v>
       </c>
       <c r="J4" s="8"/>
       <c r="L4" s="49" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N4" s="60">
         <v>45272</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
@@ -2541,42 +2510,42 @@
       <c r="U4" s="57"/>
       <c r="V4" s="35"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="30">
       <c r="A5" s="38" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B5" s="6">
         <v>29.5</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" s="10"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="56"/>
@@ -2586,23 +2555,23 @@
       <c r="U5" s="57"/>
       <c r="V5" s="35"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.8">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
@@ -2615,7 +2584,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
       <c r="O6" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="56"/>
@@ -2625,21 +2594,21 @@
       <c r="U6" s="57"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
         <v>1</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="16.8">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2656,13 +2625,13 @@
       <c r="U7" s="57"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -2790,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E1262C-D24D-417F-A9AD-2A1A13B9CAAB}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -2883,114 +2852,114 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>32</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N2" s="62" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="57" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="S2" s="57"/>
       <c r="T2" s="57"/>
       <c r="U2" s="57"/>
       <c r="V2" s="35"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
         <v>30</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="16.8">
       <c r="A3" s="38" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B3" s="6">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>23</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="56"/>
@@ -3000,56 +2969,56 @@
       <c r="U3" s="57"/>
       <c r="V3" s="35"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>110</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="38" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B4" s="6">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
@@ -3059,44 +3028,44 @@
       <c r="U4" s="57"/>
       <c r="V4" s="35"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="30">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="L5" s="63" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="56"/>
@@ -3106,21 +3075,21 @@
       <c r="U5" s="57"/>
       <c r="V5" s="35"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.8">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="10"/>
@@ -3131,7 +3100,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
       <c r="O6" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="56"/>
@@ -3141,21 +3110,21 @@
       <c r="U6" s="57"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="16.8">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3172,13 +3141,13 @@
       <c r="U7" s="57"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -3306,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BF0000-2424-4E67-B3B4-8B6F0D82325E}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -3399,116 +3368,116 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="64">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>14</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="62" t="s">
-        <v>158</v>
-      </c>
       <c r="O2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="81" t="s">
-        <v>86</v>
+      <c r="R2" s="79" t="s">
+        <v>71</v>
       </c>
       <c r="S2" s="57"/>
       <c r="T2" s="57"/>
       <c r="U2" s="57"/>
       <c r="V2" s="35"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="14.4">
       <c r="A3" s="38" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B3" s="64">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>30</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="56"/>
@@ -3518,56 +3487,56 @@
       <c r="U3" s="57"/>
       <c r="V3" s="35"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4953</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="38" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B4" s="64">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2.5</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
@@ -3577,50 +3546,50 @@
       <c r="U4" s="57"/>
       <c r="V4" s="35"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="28.8">
       <c r="A5" s="38" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B5" s="64">
         <v>17.5</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="56"/>
@@ -3630,17 +3599,17 @@
       <c r="U5" s="57"/>
       <c r="V5" s="35"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
         <v>0</v>
       </c>
     </row>
@@ -3648,22 +3617,22 @@
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="L6" s="63" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="56"/>
@@ -3673,21 +3642,21 @@
       <c r="U6" s="57"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="P7" s="32"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
@@ -3696,11 +3665,11 @@
       <c r="U7" s="57"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -3812,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225B4E4E-F557-415E-AD16-582F7AD941AC}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -3905,114 +3874,114 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC1" s="88" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="64">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="78">
+        <v>66</v>
+      </c>
+      <c r="N2" s="76">
         <v>45627</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="81" t="s">
-        <v>86</v>
+      <c r="R2" s="79" t="s">
+        <v>71</v>
       </c>
       <c r="S2" s="57"/>
       <c r="T2" s="57"/>
       <c r="U2" s="57"/>
       <c r="V2" s="35"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
         <v>16</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="16.8">
       <c r="A3" s="38" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B3" s="64">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="10" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="77">
+        <v>66</v>
+      </c>
+      <c r="N3" s="75">
         <v>45627</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="56"/>
@@ -4022,56 +3991,56 @@
       <c r="U3" s="57"/>
       <c r="V3" s="35"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>120</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>5073</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="38" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B4" s="64">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="77">
+        <v>66</v>
+      </c>
+      <c r="I4" s="75">
         <v>45505</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="77">
+        <v>66</v>
+      </c>
+      <c r="N4" s="75">
         <v>45505</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
@@ -4081,46 +4050,46 @@
       <c r="U4" s="57"/>
       <c r="V4" s="35"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.8">
       <c r="A5" s="38" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B5" s="64">
         <v>10</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="77">
+        <v>66</v>
+      </c>
+      <c r="I5" s="75">
         <v>45505</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="77">
+        <v>66</v>
+      </c>
+      <c r="N5" s="75">
         <v>45413</v>
       </c>
       <c r="O5" s="9"/>
@@ -4132,50 +4101,50 @@
       <c r="U5" s="57"/>
       <c r="V5" s="35"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4">
       <c r="A6" s="38" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B6" s="64">
         <v>17</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="77">
+        <v>66</v>
+      </c>
+      <c r="I6" s="75">
         <v>45627</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="77">
+        <v>66</v>
+      </c>
+      <c r="N6" s="75">
         <v>45413</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="56"/>
@@ -4185,32 +4154,32 @@
       <c r="U6" s="57"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="16.8">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="63" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="77">
+        <v>66</v>
+      </c>
+      <c r="N7" s="75">
         <v>45505</v>
       </c>
       <c r="O7" s="32"/>
@@ -4222,13 +4191,13 @@
       <c r="U7" s="57"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -4356,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E5F973-19EA-4264-B9A5-36C27BF0D163}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -4451,234 +4420,234 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="27">
+      <c r="A2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC1" s="88" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="64">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="77">
+        <v>66</v>
+      </c>
+      <c r="I2" s="75">
         <v>45536</v>
       </c>
       <c r="J2" s="8"/>
       <c r="L2" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="77">
+        <v>66</v>
+      </c>
+      <c r="N2" s="75">
         <v>45627</v>
       </c>
       <c r="O2" s="21"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="S2" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="T2" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="U2" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="V2" s="82"/>
+      <c r="Q2" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" s="80"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="38" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B3" s="64">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="77">
+        <v>66</v>
+      </c>
+      <c r="I3" s="75">
         <v>45536</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="10" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="77">
+        <v>66</v>
+      </c>
+      <c r="N3" s="75">
         <v>45627</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="82"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="80"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>180</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>5253</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8">
+    <row r="4" spans="1:29" ht="14.4">
       <c r="A4" s="38" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B4" s="64">
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="77">
+        <v>66</v>
+      </c>
+      <c r="I4" s="75">
         <v>45627</v>
       </c>
       <c r="J4" s="8"/>
       <c r="L4" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="77">
+        <v>66</v>
+      </c>
+      <c r="N4" s="75">
         <v>45627</v>
       </c>
       <c r="O4" s="21"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="43.2">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.8">
       <c r="A5" s="38" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B5" s="64">
         <v>2</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="77"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="8"/>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="77">
+        <v>66</v>
+      </c>
+      <c r="N5" s="75">
         <v>45536</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="82"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
         <v>0</v>
       </c>
     </row>
@@ -4687,15 +4656,15 @@
       <c r="B6" s="64"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="77"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="77">
+        <v>66</v>
+      </c>
+      <c r="N6" s="75">
         <v>45536</v>
       </c>
       <c r="O6" s="8"/>
@@ -4707,32 +4676,32 @@
       <c r="U6" s="57"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
         <v>1</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="77">
+        <v>66</v>
+      </c>
+      <c r="N7" s="75">
         <v>45536</v>
       </c>
       <c r="O7" s="32"/>
@@ -4744,13 +4713,13 @@
       <c r="U7" s="57"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -4879,7 +4848,7 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -4973,208 +4942,208 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="16.8">
+      <c r="A2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="64">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>45</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N2" s="62" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="24"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="82"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="80"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="38" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B3" s="64">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="82"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="80"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>160</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>5413</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8">
+    <row r="4" spans="1:29" ht="16.8">
       <c r="A4" s="38" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B4" s="64">
         <v>41.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2.5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="43.2">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="28.8">
       <c r="A5" s="38" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B5" s="64">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -5182,40 +5151,40 @@
       <c r="O5"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="82"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.4">
       <c r="A6" s="38" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B6" s="64">
         <v>4</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="77"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="8"/>
       <c r="L6" s="10"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="77"/>
+      <c r="N6" s="75"/>
       <c r="O6" s="8"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="56"/>
@@ -5225,28 +5194,28 @@
       <c r="U6" s="57"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="77"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="56"/>
@@ -5256,13 +5225,13 @@
       <c r="U7" s="57"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -5390,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543E1424-243D-4A07-87C2-454EED260585}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5402,700 +5371,699 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="84" t="s">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="83" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="83" t="s">
+      <c r="K1" s="84"/>
+      <c r="L1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="109" t="s">
+      <c r="P1" s="84"/>
+      <c r="Q1" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="109" t="s">
+      <c r="R1" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="112" t="s">
+      <c r="S1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="83" t="s">
+      <c r="U1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="V1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="87" t="s">
+      <c r="X1" s="84"/>
+      <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="72">
+      <c r="A2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="88" t="s">
+      <c r="B2" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC1" s="88" t="s">
+      <c r="E2" s="82">
+        <v>14</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="89">
+        <v>45316</v>
+      </c>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="93">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="93"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="94">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="72">
+      <c r="A3" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="86">
+        <v>24</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="82">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="72">
-      <c r="A2" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="91">
-        <v>1</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="84">
-        <v>14</v>
-      </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="94">
-        <v>45316</v>
-      </c>
-      <c r="O2" s="95"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="98">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="99">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="72">
-      <c r="A3" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="91">
-        <v>24</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="84">
-        <v>22</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="98">
+      <c r="Z3" s="93">
         <v>90</v>
       </c>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="99">
+      <c r="AA3" s="93"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="94">
         <v>5503</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="59.4" thickBot="1">
-      <c r="A4" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="91">
+      <c r="A4" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="86">
         <v>3</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="84">
+      <c r="C4" s="84"/>
+      <c r="D4" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="82">
         <v>2</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="96"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="91"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="98">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1">
-      <c r="A5" s="90" t="s">
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="91">
+      <c r="Z4" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="93"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="58.2" thickBot="1">
+      <c r="A5" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="86">
         <v>10</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="91"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="98">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="29.4" thickBot="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="96"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="93"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="91"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="99">
+      <c r="V6" s="100"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="93"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="94">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.2" thickBot="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
+    <row r="7" spans="1:29" ht="15" thickBot="1">
+      <c r="A7" s="84"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
       <c r="T7" s="57"/>
       <c r="U7" s="57"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="108">
+      <c r="V7" s="100"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
       <c r="U9" s="57"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
     </row>
     <row r="10" spans="1:29" ht="17.399999999999999" thickBot="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
     </row>
     <row r="11" spans="1:29" ht="15" thickBot="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
       <c r="U11" s="57"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
     </row>
     <row r="12" spans="1:29" ht="15" thickBot="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="86"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="86"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="86"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="86"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="86"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="86"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6117,8 +6085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19281029-4EFB-438E-AB9D-C129F303978E}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6130,736 +6098,735 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="84" t="s">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="83" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="83" t="s">
+      <c r="K1" s="84"/>
+      <c r="L1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="83" t="s">
+      <c r="U1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="V1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="87" t="s">
+      <c r="X1" s="84"/>
+      <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="75" customHeight="1">
+      <c r="A2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="88" t="s">
+      <c r="B2" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="36" t="s">
+      <c r="E2" s="82">
+        <v>29</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="75">
+        <v>45323</v>
+      </c>
+      <c r="O2" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" s="92"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="93"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="94">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="44.4">
+      <c r="A3" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="86">
+        <v>55</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="82">
+        <v>29</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="108"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="AC1" s="88" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="75" customHeight="1">
-      <c r="A2" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="91">
-        <v>1</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="84">
-        <v>29</v>
-      </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="7" t="s">
+      <c r="S3" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="T3" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="V3" s="92"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="93">
+        <v>110</v>
+      </c>
+      <c r="AA3" s="93"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="94">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="87.6">
+      <c r="A4" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="86">
+        <v>4</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="82">
+        <v>2</v>
+      </c>
+      <c r="F4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="108"/>
+      <c r="O4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="T4" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="V4" s="92"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="93"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="77">
-        <v>45323</v>
-      </c>
-      <c r="O2" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="110" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="S2" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="T2" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="V2" s="97"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="98">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="99">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="57.6">
-      <c r="A3" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="91">
-        <v>55</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="84">
-        <v>29</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="R3" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="T3" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="V3" s="97"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="98">
-        <v>110</v>
-      </c>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="99">
-        <v>5613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="87.6">
-      <c r="A4" s="90" t="s">
+      <c r="Z5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="93"/>
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="91">
-        <v>4</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="84">
-        <v>2</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="113"/>
-      <c r="O4" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="R4" s="81" t="s">
-        <v>192</v>
-      </c>
-      <c r="S4" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="T4" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="V4" s="97"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="98">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="98">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="96"/>
+      <c r="AC5" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="91"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="106">
+      <c r="V6" s="100"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="101">
         <v>3</v>
       </c>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="99">
+      <c r="AA6" s="93"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="94">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.2" thickBot="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
+    <row r="7" spans="1:29" ht="15" thickBot="1">
+      <c r="A7" s="84"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
       <c r="T7" s="57"/>
       <c r="U7" s="57"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="108">
+      <c r="V7" s="100"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
       <c r="U9" s="57"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
     </row>
     <row r="10" spans="1:29" ht="17.399999999999999" thickBot="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
     </row>
     <row r="11" spans="1:29" ht="15" thickBot="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
       <c r="U11" s="57"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
     </row>
     <row r="12" spans="1:29" ht="15" thickBot="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="86"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="86"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="86"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="86"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="86"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="86"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6881,8 +6848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84366D6E-90EF-4AA1-9F7B-2E744F75F020}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -6972,112 +6939,112 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>65</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="56"/>
       <c r="R2" s="57" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="S2" s="57"/>
       <c r="T2" s="57"/>
       <c r="U2" s="57"/>
       <c r="V2" s="19"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="28.8">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6">
         <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>63.5</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="O3" s="39"/>
       <c r="Q3" s="56"/>
@@ -7087,44 +7054,44 @@
       <c r="U3" s="57"/>
       <c r="V3" s="19"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>200</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>3765</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6">
         <v>51.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="14"/>
@@ -7137,47 +7104,47 @@
       <c r="U4" s="57"/>
       <c r="V4" s="19"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="28.8">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4">
         <v>18</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -7189,21 +7156,21 @@
       <c r="U5" s="57"/>
       <c r="V5" s="19"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7215,21 +7182,21 @@
       <c r="U6" s="57"/>
       <c r="V6" s="19"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -7237,13 +7204,13 @@
       <c r="U7" s="57"/>
       <c r="V7" s="19"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -7354,8 +7321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF222FBC-1CF9-4496-BF24-F8CA7FF34467}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -7445,144 +7412,144 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="30">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>46</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="49" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N2" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="71">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="69">
         <v>181</v>
       </c>
-      <c r="R2" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="74"/>
-      <c r="V2" s="75"/>
+      <c r="R2" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="72"/>
+      <c r="V2" s="73"/>
       <c r="W2" s="25"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="16.8">
       <c r="A3" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B3" s="6">
         <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>46.6</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="49" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75"/>
+        <v>23</v>
+      </c>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="73"/>
       <c r="W3" s="25"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>80</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>3845</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="14.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2.5</v>
@@ -7592,43 +7559,43 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="49" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="75"/>
+        <v>69</v>
+      </c>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="73"/>
       <c r="W4" s="25"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4">
         <v>15</v>
@@ -7638,7 +7605,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -7649,22 +7616,22 @@
       <c r="T5" s="57"/>
       <c r="U5" s="57"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="76"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="W5" s="74"/>
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7676,21 +7643,21 @@
       <c r="U6" s="57"/>
       <c r="V6" s="19"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
         <v>1</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -7698,13 +7665,13 @@
       <c r="U7" s="57"/>
       <c r="V7" s="19"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -7815,8 +7782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD034EBE-0518-4751-8715-41223828A7C3}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -7906,111 +7873,111 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>20</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="49" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N2" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="56"/>
       <c r="R2" s="57" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="S2" s="57"/>
       <c r="T2" s="57"/>
       <c r="U2" s="57"/>
       <c r="V2" s="19"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
         <v>84</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6">
         <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="49" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="56"/>
       <c r="R3" s="57"/>
@@ -8019,25 +7986,25 @@
       <c r="U3" s="57"/>
       <c r="V3" s="19"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>90</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>3935</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -8047,16 +8014,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="49" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="55" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="56"/>
       <c r="R4" s="57"/>
@@ -8065,25 +8032,25 @@
       <c r="U4" s="57"/>
       <c r="V4" s="19"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4">
         <v>6</v>
@@ -8093,7 +8060,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -8105,21 +8072,21 @@
       <c r="U5" s="57"/>
       <c r="V5" s="19"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -8131,21 +8098,21 @@
       <c r="U6" s="57"/>
       <c r="V6" s="19"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -8153,13 +8120,13 @@
       <c r="U7" s="57"/>
       <c r="V7" s="19"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -8270,8 +8237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -8361,111 +8328,111 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="17"/>
       <c r="R2" s="18" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="18"/>
@@ -8474,29 +8441,29 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>135</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4070</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6">
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -8506,16 +8473,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="18"/>
@@ -8524,21 +8491,21 @@
       <c r="U4" s="18"/>
       <c r="V4" s="19"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -8546,7 +8513,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -8558,21 +8525,21 @@
       <c r="U5" s="18"/>
       <c r="V5" s="19"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -8584,21 +8551,21 @@
       <c r="U6" s="18"/>
       <c r="V6" s="19"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="Q7" s="17"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -8606,13 +8573,13 @@
       <c r="U7" s="18"/>
       <c r="V7" s="19"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -8650,7 +8617,7 @@
     </row>
     <row r="11" spans="1:29" ht="14.4">
       <c r="Q11" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -8725,8 +8692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -8817,112 +8784,112 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="30">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>24</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="23" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>42</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="O3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="22"/>
@@ -8932,29 +8899,29 @@
       <c r="U3" s="23"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>120</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4190</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3">
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -8964,16 +8931,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="22"/>
@@ -8983,21 +8950,21 @@
       <c r="U4" s="23"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="28.8">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -9005,16 +8972,16 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="10" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="22"/>
@@ -9024,17 +8991,17 @@
       <c r="U5" s="23"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
         <v>0</v>
       </c>
     </row>
@@ -9044,16 +9011,16 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="L6" s="10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="22"/>
@@ -9063,21 +9030,21 @@
       <c r="U6" s="23"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="14.4">
       <c r="Q7" s="22"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
@@ -9085,13 +9052,13 @@
       <c r="U7" s="23"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
@@ -9200,8 +9167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -9292,425 +9259,425 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>34</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="69">
+        <v>182</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="71">
-        <v>182</v>
-      </c>
-      <c r="R2" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="71"/>
+      <c r="T2" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="69"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="28.8">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>34</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="26"/>
-      <c r="Q3" s="71">
+      <c r="Q3" s="69">
         <v>183</v>
       </c>
-      <c r="R3" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="71"/>
+      <c r="R3" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="69"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>230</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4420</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="69">
+        <v>184</v>
+      </c>
+      <c r="R4" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="71">
-        <v>184</v>
-      </c>
-      <c r="R4" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="S4" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="U4" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="71"/>
+      <c r="T4" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="69"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="44.4">
       <c r="A5" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6">
         <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="26"/>
-      <c r="Q5" s="71">
+      <c r="Q5" s="69">
         <v>185</v>
       </c>
-      <c r="R5" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="71"/>
+      <c r="R5" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="69"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="28.8">
       <c r="L6" s="10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="69">
+        <v>186</v>
+      </c>
+      <c r="R6" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="71">
-        <v>186</v>
-      </c>
-      <c r="R6" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="S6" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="U6" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="73"/>
+      <c r="S6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="71"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
         <v>8</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="L7" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="71">
+      <c r="Q7" s="69">
         <v>187</v>
       </c>
-      <c r="R7" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="S7" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" s="73"/>
+      <c r="R7" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="71"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="43.2">
       <c r="L8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="69">
+        <v>188</v>
+      </c>
+      <c r="R8" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="S8" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="71">
-        <v>188</v>
-      </c>
-      <c r="R8" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="U8" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" s="71"/>
+      <c r="U8" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="69"/>
       <c r="W8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="14.4">
-      <c r="Q9" s="71">
+      <c r="Q9" s="69">
         <v>189</v>
       </c>
-      <c r="R9" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="71" t="s">
+      <c r="R9" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="U9" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" s="71"/>
+      <c r="S9" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="69"/>
       <c r="W9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -9797,8 +9764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Z3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -9889,120 +9856,120 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="30">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>51</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="24"/>
-      <c r="Q2" s="71">
+      <c r="Q2" s="69">
         <v>190</v>
       </c>
-      <c r="R2" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>53</v>
+      <c r="R2" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>45</v>
       </c>
       <c r="V2" s="35"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
         <v>48</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>51</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="36"/>
@@ -10012,56 +9979,56 @@
       <c r="U3" s="36"/>
       <c r="V3" s="35"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>163</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4583</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6">
         <v>70.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>5.5</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="M4" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="36"/>
@@ -10071,54 +10038,54 @@
       <c r="U4" s="36"/>
       <c r="V4" s="35"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="44.4">
       <c r="A5" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4">
         <v>35</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="36"/>
@@ -10128,48 +10095,48 @@
       <c r="U5" s="36"/>
       <c r="V5" s="35"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="30">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6">
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="36"/>
@@ -10179,38 +10146,38 @@
       <c r="U6" s="36"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
         <v>1</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="30">
       <c r="G7" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="32"/>
@@ -10222,29 +10189,29 @@
       <c r="U7" s="36"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -10263,16 +10230,16 @@
     </row>
     <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="33"/>
       <c r="R9" s="34"/>
@@ -10286,14 +10253,14 @@
     </row>
     <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="33"/>
       <c r="R10" s="34"/>
@@ -10380,8 +10347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B5BA26-29F6-460D-AE02-932FD2A55792}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R3" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -10472,183 +10439,183 @@
         <v>18</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="66"/>
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>22</v>
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="30">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>43</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
       <c r="L2" s="49" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N2" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="69">
+        <v>191</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="71">
-        <v>191</v>
-      </c>
-      <c r="R2" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>33</v>
+      <c r="T2" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>29</v>
       </c>
       <c r="V2" s="35"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="67">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="65">
         <v>36</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="68">
+      <c r="AA2" s="65"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="66">
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>43</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
       <c r="L3" s="49" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="69">
+        <v>192</v>
+      </c>
+      <c r="R3" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="S3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="71">
-        <v>192</v>
-      </c>
-      <c r="R3" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="S3" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="71" t="s">
-        <v>33</v>
+      <c r="T3" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="69" t="s">
+        <v>29</v>
       </c>
       <c r="V3" s="35"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="67">
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="65">
         <v>140</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="68">
+      <c r="AA3" s="65"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4723</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6">
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>4.5</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="58" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
@@ -10658,38 +10625,38 @@
       <c r="U4" s="57"/>
       <c r="V4" s="35"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="44.4">
       <c r="A5" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6">
         <v>16.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
@@ -10697,7 +10664,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="56"/>
@@ -10707,42 +10674,42 @@
       <c r="U5" s="57"/>
       <c r="V5" s="35"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="68">
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="30">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6">
         <v>30</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
       <c r="O6" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="56"/>
@@ -10752,36 +10719,36 @@
       <c r="U6" s="57"/>
       <c r="V6" s="35"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="70">
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="68">
         <v>1</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="68">
+      <c r="AA6" s="65"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="66">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="30">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6">
         <v>14</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="8"/>
@@ -10795,27 +10762,27 @@
       <c r="U7" s="57"/>
       <c r="V7" s="35"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="69">
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="67">
         <f>AC4/AC2</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.4">
       <c r="G8" s="40" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -10834,14 +10801,14 @@
     </row>
     <row r="9" spans="1:29" ht="14.4">
       <c r="G9" s="10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
@@ -10855,14 +10822,14 @@
     </row>
     <row r="10" spans="1:29" ht="16.8">
       <c r="G10" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
@@ -10943,18 +10910,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11135,18 +11102,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dataSources/WSR/OneTracker.xlsx
+++ b/dataSources/WSR/OneTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceslimited01-my.sharepoint.com/personal/meenakshi_kasi_cesltd_com/Documents/Oaktree/WSR_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFB19F2-8D42-4AE1-A987-DDBE8C16DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{BCFB19F2-8D42-4AE1-A987-DDBE8C16DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4263581-097F-40B9-8B53-212BED7E5E14}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
     <sheet name="15 Jan 2024" sheetId="19" r:id="rId16"/>
     <sheet name="22 Jan 2024" sheetId="20" r:id="rId17"/>
+    <sheet name="29 Jan 2024" sheetId="22" r:id="rId18"/>
+    <sheet name="5 Feb 2024" sheetId="23" r:id="rId19"/>
+    <sheet name="12 Feb 2024" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="198">
   <si>
     <t>Task Name</t>
   </si>
@@ -692,12 +695,45 @@
   <si>
     <t>Count..</t>
   </si>
+  <si>
+    <t>No defects logged for the week</t>
+  </si>
+  <si>
+    <t>Role based Testing</t>
+  </si>
+  <si>
+    <t>Test case Updation</t>
+  </si>
+  <si>
+    <t>Test cases updation</t>
+  </si>
+  <si>
+    <t>CFU Testing (Download Blank Template/Excel Upload)</t>
+  </si>
+  <si>
+    <t>CFU Testing</t>
+  </si>
+  <si>
+    <t>YTS</t>
+  </si>
+  <si>
+    <t>To be started once deployment is done.</t>
+  </si>
+  <si>
+    <t>CFU Testing (Download Blank Template/ Export to Excel)</t>
+  </si>
+  <si>
+    <t>Documentation(QA Evidence)</t>
+  </si>
+  <si>
+    <t>CFU Testing (Excel upload)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +915,14 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -888,6 +932,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1105,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1290,12 +1348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1424,6 +1476,52 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,40 +1804,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A99992-8CDC-4AFA-B5B9-1EA71B614833}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.08984375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1909,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1824,13 +1922,13 @@
       <c r="E2" s="3">
         <v>53</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="108" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="50" t="s">
@@ -1848,23 +1946,23 @@
       <c r="O2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="69">
+      <c r="Q2" s="67">
         <v>177</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
       <c r="Y2" t="s">
         <v>177</v>
       </c>
@@ -1875,11 +1973,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="44" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1892,9 +1990,9 @@
       <c r="E3" s="48">
         <v>53.5</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="111"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="109"/>
       <c r="J3" s="43" t="s">
         <v>31</v>
       </c>
@@ -1910,23 +2008,23 @@
       <c r="O3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="69">
+      <c r="Q3" s="67">
         <v>178</v>
       </c>
-      <c r="R3" s="70" t="s">
+      <c r="R3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="69" t="s">
+      <c r="S3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="69" t="s">
+      <c r="U3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="69"/>
-      <c r="W3" s="70" t="s">
+      <c r="V3" s="67"/>
+      <c r="W3" s="68" t="s">
         <v>37</v>
       </c>
       <c r="Y3" t="s">
@@ -1939,11 +2037,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -1980,23 +2078,23 @@
       <c r="O4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="69">
+      <c r="Q4" s="67">
         <v>179</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="69" t="s">
+      <c r="T4" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
       <c r="Y4" t="s">
         <v>179</v>
       </c>
@@ -2007,11 +2105,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.5" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -2042,23 +2140,23 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="Q5" s="69">
+      <c r="Q5" s="67">
         <v>180</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
       <c r="Y5" t="s">
         <v>180</v>
       </c>
@@ -2069,11 +2167,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="29.5" thickBot="1">
       <c r="G6" s="41" t="s">
         <v>32</v>
       </c>
@@ -2096,18 +2194,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>4</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="Q7" s="53"/>
       <c r="R7" s="54"/>
       <c r="S7" s="54"/>
@@ -2121,12 +2219,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="Q8" s="53"/>
       <c r="R8" s="54"/>
       <c r="S8" s="54"/>
@@ -2137,7 +2234,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -2148,7 +2245,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -2157,7 +2254,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -2166,7 +2263,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2174,7 +2271,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2182,7 +2279,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2190,7 +2287,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2198,7 +2295,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2206,7 +2303,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2214,7 +2311,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2238,40 +2335,40 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2440,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.8">
+    <row r="2" spans="1:29" ht="30.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -2379,19 +2476,19 @@
         <v>23</v>
       </c>
       <c r="P2" s="24"/>
-      <c r="Q2" s="69">
+      <c r="Q2" s="67">
         <v>193</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="67" t="s">
         <v>29</v>
       </c>
       <c r="V2" s="35"/>
@@ -2406,11 +2503,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>131</v>
       </c>
@@ -2463,11 +2560,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>4843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.4">
+      <c r="AC3" s="92">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="38" t="s">
         <v>125</v>
       </c>
@@ -2520,11 +2617,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="30">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="30.5" thickBot="1">
       <c r="A5" s="38" t="s">
         <v>134</v>
       </c>
@@ -2565,11 +2662,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="16.8">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>135</v>
       </c>
@@ -2597,18 +2694,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>1</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.8">
+      <c r="AC6" s="92">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17" thickBot="1">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2631,12 +2728,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2656,7 +2752,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2671,7 +2767,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -2684,7 +2780,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -2693,7 +2789,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -2702,7 +2798,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2710,7 +2806,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2718,7 +2814,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2726,7 +2822,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2734,7 +2830,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2742,7 +2838,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2760,40 +2856,40 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2961,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -2922,11 +3018,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.8">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>137</v>
       </c>
@@ -2979,11 +3075,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>4953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="38" t="s">
         <v>134</v>
       </c>
@@ -3038,11 +3134,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="30">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="31" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>135</v>
       </c>
@@ -3085,11 +3181,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="16.8">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="10"/>
@@ -3113,18 +3209,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>0</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.8">
+      <c r="AC6" s="92">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17" thickBot="1">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3147,12 +3243,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3172,7 +3267,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3187,7 +3282,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -3200,7 +3295,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -3209,7 +3304,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -3218,7 +3313,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3226,7 +3321,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3234,7 +3329,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3242,7 +3337,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3250,7 +3345,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3258,7 +3353,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3276,40 +3371,40 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3476,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -3420,7 +3515,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="79" t="s">
+      <c r="R2" s="77" t="s">
         <v>71</v>
       </c>
       <c r="S2" s="57"/>
@@ -3438,11 +3533,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.4">
+    <row r="3" spans="1:29" ht="29.5" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>137</v>
       </c>
@@ -3497,11 +3592,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>4953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="38" t="s">
         <v>134</v>
       </c>
@@ -3556,11 +3651,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.5" thickBot="1">
       <c r="A5" s="38" t="s">
         <v>144</v>
       </c>
@@ -3609,11 +3704,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="30">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="31" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="G6" s="24" t="s">
@@ -3645,18 +3740,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>0</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="P7" s="32"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
@@ -3669,12 +3764,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -3688,7 +3782,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -3697,7 +3791,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -3706,7 +3800,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -3715,7 +3809,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -3724,7 +3818,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3732,7 +3826,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3740,7 +3834,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3748,7 +3842,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3756,7 +3850,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3764,7 +3858,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3782,40 +3876,40 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +3981,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -3918,7 +4012,7 @@
       <c r="M2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="76">
+      <c r="N2" s="74">
         <v>45627</v>
       </c>
       <c r="O2" s="21" t="s">
@@ -3926,7 +4020,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="79" t="s">
+      <c r="R2" s="77" t="s">
         <v>71</v>
       </c>
       <c r="S2" s="57"/>
@@ -3944,11 +4038,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.8">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>137</v>
       </c>
@@ -3977,7 +4071,7 @@
       <c r="M3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="75">
+      <c r="N3" s="73">
         <v>45627</v>
       </c>
       <c r="O3" s="21" t="s">
@@ -4001,11 +4095,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>5073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="38" t="s">
         <v>134</v>
       </c>
@@ -4024,7 +4118,7 @@
       <c r="H4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="73">
         <v>45505</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -4036,7 +4130,7 @@
       <c r="M4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="73">
         <v>45505</v>
       </c>
       <c r="O4" s="21" t="s">
@@ -4060,11 +4154,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="16.8">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="30.5" thickBot="1">
       <c r="A5" s="38" t="s">
         <v>149</v>
       </c>
@@ -4077,7 +4171,7 @@
       <c r="H5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="73">
         <v>45505</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -4089,7 +4183,7 @@
       <c r="M5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="75">
+      <c r="N5" s="73">
         <v>45413</v>
       </c>
       <c r="O5" s="9"/>
@@ -4111,11 +4205,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="29.5" thickBot="1">
       <c r="A6" s="38" t="s">
         <v>150</v>
       </c>
@@ -4128,7 +4222,7 @@
       <c r="H6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="73">
         <v>45627</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -4140,7 +4234,7 @@
       <c r="M6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="75">
+      <c r="N6" s="73">
         <v>45413</v>
       </c>
       <c r="O6" s="8" t="s">
@@ -4157,18 +4251,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>0</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.8">
+      <c r="AC6" s="92">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17.5" thickBot="1">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4179,7 +4273,7 @@
       <c r="M7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="75">
+      <c r="N7" s="73">
         <v>45505</v>
       </c>
       <c r="O7" s="32"/>
@@ -4197,12 +4291,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4222,7 +4315,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4237,7 +4330,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4250,7 +4343,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -4259,7 +4352,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -4268,7 +4361,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4276,7 +4369,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4284,7 +4377,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4292,7 +4385,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4300,7 +4393,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4308,7 +4401,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4326,42 +4419,42 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5546875" style="2" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="11.5546875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.54296875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="8.90625" style="2"/>
+    <col min="28" max="28" width="11.54296875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4526,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="27">
+    <row r="2" spans="1:29" ht="29.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -4452,7 +4545,7 @@
       <c r="H2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="75">
+      <c r="I2" s="73">
         <v>45536</v>
       </c>
       <c r="J2" s="8"/>
@@ -4462,27 +4555,27 @@
       <c r="M2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="73">
         <v>45627</v>
       </c>
       <c r="O2" s="21"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="79" t="s">
+      <c r="T2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="79" t="s">
+      <c r="U2" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="V2" s="80"/>
+      <c r="V2" s="78"/>
       <c r="W2" s="1"/>
       <c r="Y2" t="s">
         <v>177</v>
@@ -4494,11 +4587,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>134</v>
       </c>
@@ -4517,7 +4610,7 @@
       <c r="H3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="73">
         <v>45536</v>
       </c>
       <c r="J3" s="9"/>
@@ -4527,17 +4620,17 @@
       <c r="M3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="75">
+      <c r="N3" s="73">
         <v>45627</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="80"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="78"/>
       <c r="W3" s="1"/>
       <c r="Y3" t="s">
         <v>178</v>
@@ -4549,11 +4642,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>5253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.4">
+      <c r="AC3" s="92">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -4572,7 +4665,7 @@
       <c r="H4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="73">
         <v>45627</v>
       </c>
       <c r="J4" s="8"/>
@@ -4582,17 +4675,17 @@
       <c r="M4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="73">
         <v>45627</v>
       </c>
       <c r="O4" s="21"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
       <c r="W4" s="1"/>
       <c r="Y4" t="s">
         <v>179</v>
@@ -4604,11 +4697,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="16.8">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="17" thickBot="1">
       <c r="A5" s="38" t="s">
         <v>150</v>
       </c>
@@ -4617,7 +4710,7 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="75"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="8"/>
       <c r="L5" s="7" t="s">
         <v>147</v>
@@ -4625,17 +4718,17 @@
       <c r="M5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="75">
+      <c r="N5" s="73">
         <v>45536</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="80"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="1"/>
       <c r="Y5" t="s">
         <v>180</v>
@@ -4647,16 +4740,16 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" thickBot="1">
       <c r="A6" s="38"/>
       <c r="B6" s="64"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="75"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="8"/>
       <c r="L6" s="10" t="s">
         <v>151</v>
@@ -4664,7 +4757,7 @@
       <c r="M6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="75">
+      <c r="N6" s="73">
         <v>45536</v>
       </c>
       <c r="O6" s="8"/>
@@ -4679,18 +4772,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>1</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4701,7 +4794,7 @@
       <c r="M7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="75">
+      <c r="N7" s="73">
         <v>45536</v>
       </c>
       <c r="O7" s="32"/>
@@ -4719,12 +4812,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4744,7 +4836,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4759,7 +4851,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -4772,7 +4864,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -4781,7 +4873,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -4790,7 +4882,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4798,7 +4890,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4806,7 +4898,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4814,7 +4906,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4822,7 +4914,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4830,7 +4922,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4848,42 +4940,42 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5546875" style="2" customWidth="1"/>
-    <col min="26" max="27" width="9.109375" style="2"/>
-    <col min="28" max="28" width="11.5546875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.54296875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="9.08984375" style="2"/>
+    <col min="28" max="28" width="11.54296875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4955,7 +5047,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.8">
+    <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -4989,14 +5081,14 @@
         <v>23</v>
       </c>
       <c r="P2" s="24"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78" t="s">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="78"/>
       <c r="W2" s="1"/>
       <c r="Y2" t="s">
         <v>177</v>
@@ -5008,11 +5100,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="31" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>134</v>
       </c>
@@ -5049,11 +5141,11 @@
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="80"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="78"/>
       <c r="W3" s="1"/>
       <c r="Y3" t="s">
         <v>178</v>
@@ -5065,11 +5157,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>5413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.8">
+      <c r="AC3" s="92">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" thickBot="1">
       <c r="A4" s="38" t="s">
         <v>149</v>
       </c>
@@ -5106,11 +5198,11 @@
       <c r="O4" s="9"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
       <c r="W4" s="1"/>
       <c r="Y4" t="s">
         <v>179</v>
@@ -5122,11 +5214,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.5" thickBot="1">
       <c r="A5" s="38" t="s">
         <v>161</v>
       </c>
@@ -5151,11 +5243,11 @@
       <c r="O5"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="80"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="1"/>
       <c r="Y5" t="s">
         <v>180</v>
@@ -5167,11 +5259,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" thickBot="1">
       <c r="A6" s="38" t="s">
         <v>135</v>
       </c>
@@ -5180,11 +5272,11 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="75"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="8"/>
       <c r="L6" s="10"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="75"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="8"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="56"/>
@@ -5197,25 +5289,25 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>0</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="75"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="56"/>
@@ -5231,12 +5323,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -5256,7 +5347,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -5271,7 +5362,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -5284,7 +5375,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -5293,7 +5384,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
@@ -5302,7 +5393,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5310,7 +5401,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5318,7 +5409,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5326,7 +5417,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5334,7 +5425,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5342,7 +5433,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5360,79 +5451,79 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
-    <col min="18" max="18" width="35.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" customWidth="1"/>
+    <col min="18" max="18" width="35.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="81" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="81" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="N1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="104" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="104" t="s">
+      <c r="R1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="107" t="s">
+      <c r="S1" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="T1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="V1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="W1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="84"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="36" t="s">
         <v>183</v>
       </c>
@@ -5446,624 +5537,624 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="72">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:29" ht="73" thickBot="1">
+      <c r="A2" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="86">
+      <c r="B2" s="84">
         <v>1</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="80">
         <v>14</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="87" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="87" t="s">
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="89">
+      <c r="N2" s="87">
         <v>45316</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="78" t="s">
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="84"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="82"/>
       <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" s="93">
+      <c r="Z2" s="91">
         <v>50</v>
       </c>
-      <c r="AA2" s="93"/>
+      <c r="AA2" s="91"/>
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="94">
+      <c r="AC2" s="92">
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="72">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:29" ht="73" thickBot="1">
+      <c r="A3" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="84">
         <v>24</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="80">
         <v>22</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="87" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="84"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="82"/>
       <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" s="93">
+      <c r="Z3" s="91">
         <v>90</v>
       </c>
-      <c r="AA3" s="93"/>
+      <c r="AA3" s="91"/>
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="94">
-        <v>5503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="59.4" thickBot="1">
-      <c r="A4" s="85" t="s">
+      <c r="AC3" s="92">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="59.5" thickBot="1">
+      <c r="A4" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="84">
         <v>3</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="80">
         <v>2</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="87" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="91"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="89"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="84"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="82"/>
       <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" s="93">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="93"/>
+      <c r="Z4" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="91"/>
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="58.2" thickBot="1">
-      <c r="A5" s="85" t="s">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="58.5" thickBot="1">
+      <c r="A5" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="84">
         <v>10</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="91"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="84"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="82"/>
       <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" s="93">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="93"/>
+      <c r="Z5" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="91"/>
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="94">
+      <c r="AC5" s="92">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" thickBot="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="91"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="89"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="84"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="82"/>
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="101">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="93"/>
+      <c r="Z6" s="99">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="91"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="94">
-        <v>166</v>
+      <c r="AC6" s="92">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" thickBot="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
       <c r="T7" s="57"/>
       <c r="U7" s="57"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="103">
+      <c r="AC7" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
       <c r="U9" s="57"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-    </row>
-    <row r="10" spans="1:29" ht="17.399999999999999" thickBot="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+    </row>
+    <row r="10" spans="1:29" ht="17" thickBot="1">
+      <c r="A10" s="82"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
     </row>
     <row r="11" spans="1:29" ht="15" thickBot="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
       <c r="U11" s="57"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
     </row>
     <row r="12" spans="1:29" ht="15" thickBot="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="84"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="84"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="84"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="115"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="84"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="84"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="84"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="115"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6086,80 +6177,80 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" customWidth="1"/>
-    <col min="18" max="18" width="34.6640625" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" customWidth="1"/>
+    <col min="18" max="18" width="34.6328125" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="81" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="81" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="N1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="T1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="V1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="W1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="84"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="36" t="s">
         <v>183</v>
       </c>
@@ -6173,21 +6264,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="75" customHeight="1">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:29" ht="75" customHeight="1" thickBot="1">
+      <c r="A2" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="86">
+      <c r="B2" s="84">
         <v>1</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="80">
         <v>29</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="7" t="s">
         <v>164</v>
       </c>
@@ -6198,67 +6289,67 @@
         <v>23</v>
       </c>
       <c r="J2" s="8"/>
-      <c r="K2" s="84"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="7" t="s">
         <v>165</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="73">
         <v>45323</v>
       </c>
-      <c r="O2" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="105" t="s">
+      <c r="O2" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="R2" s="106" t="s">
+      <c r="R2" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="79" t="s">
+      <c r="T2" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="79" t="s">
+      <c r="U2" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="84"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="82"/>
       <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" s="93">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="93"/>
+      <c r="Z2" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="91"/>
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="94">
+      <c r="AC2" s="92">
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:29" ht="45" thickBot="1">
+      <c r="A3" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="84">
         <v>55</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="80">
         <v>29</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="7" t="s">
         <v>132</v>
       </c>
@@ -6268,8 +6359,8 @@
       <c r="I3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="84"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="10" t="s">
         <v>132</v>
       </c>
@@ -6282,551 +6373,2023 @@
       <c r="O3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="77" t="s">
+      <c r="P3" s="89"/>
+      <c r="Q3" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="R3" s="78" t="s">
+      <c r="R3" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="S3" s="79" t="s">
+      <c r="S3" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="T3" s="79" t="s">
+      <c r="T3" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="79" t="s">
+      <c r="U3" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="V3" s="92"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="84"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="82"/>
       <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" s="93">
+      <c r="Z3" s="91">
         <v>110</v>
       </c>
-      <c r="AA3" s="93"/>
+      <c r="AA3" s="91"/>
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="94">
-        <v>5613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="87.6">
-      <c r="A4" s="85" t="s">
+      <c r="AC3" s="92">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="88.5" thickBot="1">
+      <c r="A4" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="84">
         <v>4</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="80">
         <v>2</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="K4" s="84"/>
+      <c r="F4" s="82"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="108"/>
+      <c r="N4" s="106"/>
       <c r="O4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="77" t="s">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="79" t="s">
+      <c r="T4" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="V4" s="92"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="84"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="82"/>
       <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" s="93">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="93"/>
+      <c r="Z4" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="91"/>
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="91"/>
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="84"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="82"/>
       <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" s="93">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="93"/>
+      <c r="Z5" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="91"/>
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="91"/>
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="89"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="84"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="82"/>
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="101">
+      <c r="Z6" s="99">
         <v>3</v>
       </c>
-      <c r="AA6" s="93"/>
+      <c r="AA6" s="91"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="94">
-        <v>169</v>
+      <c r="AC6" s="92">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" thickBot="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
       <c r="T7" s="57"/>
       <c r="U7" s="57"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="103">
+      <c r="AC7" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
       <c r="U9" s="57"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-    </row>
-    <row r="10" spans="1:29" ht="17.399999999999999" thickBot="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+    </row>
+    <row r="10" spans="1:29" ht="17" thickBot="1">
+      <c r="A10" s="82"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
     </row>
     <row r="11" spans="1:29" ht="15" thickBot="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
       <c r="U11" s="57"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
     </row>
     <row r="12" spans="1:29" ht="15" thickBot="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="84"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="84"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="84"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="115"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="84"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="84"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="84"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="115"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851E00A3-E527-435F-84E1-34067CB8DF11}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="82"/>
+      <c r="L1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="64" thickBot="1">
+      <c r="A2" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="84">
+        <v>2</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="80">
+        <v>20</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="117">
+        <v>45331</v>
+      </c>
+      <c r="O2" s="118"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="91">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="91"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="92">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="44" thickBot="1">
+      <c r="A3" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="84">
+        <v>9</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="80">
+        <v>12</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="119">
+        <v>45331</v>
+      </c>
+      <c r="J3" s="115"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="117">
+        <v>45331</v>
+      </c>
+      <c r="O3" s="116"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="91">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="91"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="92">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="102" thickBot="1">
+      <c r="A4" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="84">
+        <v>6</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="80">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="119">
+        <v>45331</v>
+      </c>
+      <c r="J4" s="115"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="120"/>
+      <c r="O4" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="91"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="44" thickBot="1">
+      <c r="A5" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="84">
+        <v>14.5</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="121"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="91"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="44" thickBot="1">
+      <c r="A6" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="84">
+        <v>2</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="99">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="91"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="92">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15" thickBot="1">
+      <c r="A8" s="82"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+    </row>
+    <row r="10" spans="1:29" ht="17" thickBot="1">
+      <c r="A10" s="82"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+    </row>
+    <row r="11" spans="1:29" ht="15" thickBot="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" thickBot="1">
+      <c r="A12" s="82"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="82"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="82"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="82"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="82"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="82"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="82"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A14DF9-3828-431E-B4F3-A6E0AEF123EF}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="82"/>
+      <c r="L1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="87.5" thickBot="1">
+      <c r="A2" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="84">
+        <v>1</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="80">
+        <v>12</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="91"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="92">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="45" thickBot="1">
+      <c r="A3" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="84">
+        <v>17.5</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="80">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="94"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="117">
+        <v>45345</v>
+      </c>
+      <c r="O3" s="116"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="91">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="91"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="92">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="102" thickBot="1">
+      <c r="A4" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="84">
+        <v>7</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="80">
+        <v>12</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="91"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.5" thickBot="1">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="87">
+        <v>45345</v>
+      </c>
+      <c r="J5" s="100"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="91"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="99">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="91"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="92">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15" thickBot="1">
+      <c r="A8" s="82"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+    </row>
+    <row r="10" spans="1:29" ht="17" thickBot="1">
+      <c r="A10" s="82"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+    </row>
+    <row r="11" spans="1:29" ht="15" thickBot="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" thickBot="1">
+      <c r="A12" s="82"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="82"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="82"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="82"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="82"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="82"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="82"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6849,38 +8412,38 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.08984375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6952,7 +8515,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -7008,11 +8571,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8">
+    <row r="3" spans="1:29" ht="29.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -7064,11 +8627,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>3765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -7114,11 +8677,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.5" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -7166,11 +8729,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" thickBot="1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7185,18 +8748,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>0</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -7210,12 +8773,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -7226,7 +8788,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -7237,7 +8799,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -7246,7 +8808,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -7255,7 +8817,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -7263,7 +8825,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -7271,7 +8833,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -7279,7 +8841,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7287,7 +8849,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7295,7 +8857,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7303,7 +8865,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7313,6 +8875,743 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EE9CF5-646E-4050-B8AC-093462C53BC1}">
+  <dimension ref="A1:AE18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="82"/>
+      <c r="L1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="99.5" thickBot="1">
+      <c r="A2" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="84">
+        <v>0</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="91"/>
+      <c r="AB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="92">
+        <v>656</v>
+      </c>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+    </row>
+    <row r="3" spans="1:31" ht="36.5" thickBot="1">
+      <c r="A3" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="80">
+        <v>0</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="91"/>
+      <c r="AB3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="92">
+        <v>5825</v>
+      </c>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+    </row>
+    <row r="4" spans="1:31" ht="17" thickBot="1">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="80">
+        <v>0</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="91"/>
+      <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+    </row>
+    <row r="5" spans="1:31" ht="15" thickBot="1">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="91"/>
+      <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" thickBot="1">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="99">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="91"/>
+      <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="92">
+        <v>197</v>
+      </c>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="129"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" thickBot="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1">
+      <c r="A8" s="82"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+    </row>
+    <row r="9" spans="1:31" ht="15" thickBot="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+    </row>
+    <row r="10" spans="1:31" ht="17" thickBot="1">
+      <c r="A10" s="82"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" thickBot="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" thickBot="1">
+      <c r="A12" s="82"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="82"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="82"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="82"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="82"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="82"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="82"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7322,38 +9621,38 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.08984375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7425,7 +9724,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30">
+    <row r="2" spans="1:29" ht="30.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -7460,20 +9759,20 @@
       <c r="O2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="69">
+      <c r="Q2" s="67">
         <v>181</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="72"/>
-      <c r="V2" s="73"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
       <c r="W2" s="25"/>
       <c r="Y2" t="s">
         <v>177</v>
@@ -7485,11 +9784,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.8">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -7524,12 +9823,12 @@
       <c r="O3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="73"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="71"/>
       <c r="W3" s="25"/>
       <c r="Y3" t="s">
         <v>178</v>
@@ -7541,11 +9840,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>3845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.4">
+      <c r="AC3" s="92">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -7570,12 +9869,12 @@
       <c r="O4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="71"/>
       <c r="W4" s="25"/>
       <c r="Y4" t="s">
         <v>179</v>
@@ -7587,11 +9886,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
@@ -7616,7 +9915,7 @@
       <c r="T5" s="57"/>
       <c r="U5" s="57"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="74"/>
+      <c r="W5" s="72"/>
       <c r="Y5" t="s">
         <v>180</v>
       </c>
@@ -7627,11 +9926,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" thickBot="1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7646,18 +9945,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>1</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -7671,12 +9970,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -7687,7 +9985,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -7698,7 +9996,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -7707,7 +10005,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
@@ -7716,7 +10014,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -7724,7 +10022,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -7732,7 +10030,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -7740,7 +10038,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -7748,7 +10046,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7756,7 +10054,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -7764,7 +10062,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7783,38 +10081,38 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.08984375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7886,7 +10184,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17.399999999999999">
+    <row r="2" spans="1:29" ht="18" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -7940,11 +10238,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -7996,11 +10294,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -8042,11 +10340,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
@@ -8082,11 +10380,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" thickBot="1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -8101,18 +10399,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>0</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -8126,12 +10424,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
@@ -8142,7 +10439,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
@@ -8153,7 +10450,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
@@ -8162,7 +10459,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="20"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -8171,7 +10468,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8179,7 +10476,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8187,7 +10484,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8195,7 +10492,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8203,7 +10500,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8211,7 +10508,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8219,7 +10516,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8238,38 +10535,38 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.08984375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8341,7 +10638,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17.399999999999999">
+    <row r="2" spans="1:29" ht="18" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -8395,11 +10692,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -8451,11 +10748,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -8501,11 +10798,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -8535,11 +10832,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" thickBot="1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -8554,18 +10851,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>0</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="Q7" s="17"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -8579,12 +10876,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -8595,7 +10891,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -8606,7 +10902,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -8615,7 +10911,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="20" t="s">
         <v>23</v>
       </c>
@@ -8626,7 +10922,7 @@
       <c r="V11"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -8634,7 +10930,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -8642,7 +10938,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -8650,7 +10946,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -8658,7 +10954,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -8666,7 +10962,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -8674,7 +10970,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -8693,39 +10989,39 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8797,7 +11093,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30">
+    <row r="2" spans="1:29" ht="30.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -8852,11 +11148,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -8909,11 +11205,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -8960,11 +11256,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="1"/>
@@ -9001,11 +11297,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="29.5" thickBot="1">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -9033,18 +11329,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>0</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4">
+      <c r="AC6" s="92">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="Q7" s="22"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
@@ -9058,12 +11354,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="Q8" s="22"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -9074,7 +11369,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
@@ -9085,7 +11380,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -9094,7 +11389,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -9102,7 +11397,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -9110,7 +11405,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -9118,7 +11413,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -9126,7 +11421,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -9134,7 +11429,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -9142,7 +11437,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -9150,7 +11445,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -9168,39 +11463,39 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="25" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="25"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="25" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="25"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +11567,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -9310,22 +11605,22 @@
         <v>23</v>
       </c>
       <c r="P2" s="26"/>
-      <c r="Q2" s="69">
+      <c r="Q2" s="67">
         <v>182</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="69"/>
+      <c r="V2" s="67"/>
       <c r="W2" s="1"/>
       <c r="Y2" t="s">
         <v>177</v>
@@ -9337,11 +11632,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8">
+    <row r="3" spans="1:29" ht="29.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -9379,22 +11674,22 @@
         <v>23</v>
       </c>
       <c r="P3" s="26"/>
-      <c r="Q3" s="69">
+      <c r="Q3" s="67">
         <v>183</v>
       </c>
-      <c r="R3" s="70" t="s">
+      <c r="R3" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="69" t="s">
+      <c r="S3" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="69" t="s">
+      <c r="U3" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="69"/>
+      <c r="V3" s="67"/>
       <c r="W3" s="1"/>
       <c r="Y3" t="s">
         <v>178</v>
@@ -9406,11 +11701,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -9448,22 +11743,22 @@
         <v>23</v>
       </c>
       <c r="P4" s="26"/>
-      <c r="Q4" s="69">
+      <c r="Q4" s="67">
         <v>184</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="69" t="s">
+      <c r="T4" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="69"/>
+      <c r="V4" s="67"/>
       <c r="W4" s="1"/>
       <c r="Y4" t="s">
         <v>179</v>
@@ -9475,11 +11770,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="44.4">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="45" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -9509,22 +11804,22 @@
         <v>23</v>
       </c>
       <c r="P5" s="26"/>
-      <c r="Q5" s="69">
+      <c r="Q5" s="67">
         <v>185</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="69"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="1"/>
       <c r="Y5" t="s">
         <v>180</v>
@@ -9536,11 +11831,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" thickBot="1">
       <c r="L6" s="10" t="s">
         <v>100</v>
       </c>
@@ -9554,38 +11849,38 @@
         <v>23</v>
       </c>
       <c r="P6" s="26"/>
-      <c r="Q6" s="69">
+      <c r="Q6" s="67">
         <v>186</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="71" t="s">
+      <c r="S6" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="71" t="s">
+      <c r="T6" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="71"/>
+      <c r="V6" s="69"/>
       <c r="W6" s="1"/>
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>8</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="28.8">
+      <c r="AC6" s="92">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" thickBot="1">
       <c r="L7" s="10" t="s">
         <v>102</v>
       </c>
@@ -9599,22 +11894,22 @@
         <v>23</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="69">
+      <c r="Q7" s="67">
         <v>187</v>
       </c>
-      <c r="R7" s="71" t="s">
+      <c r="R7" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="71" t="s">
+      <c r="S7" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="71" t="s">
+      <c r="T7" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="71" t="s">
+      <c r="U7" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="71"/>
+      <c r="V7" s="69"/>
       <c r="W7" s="1"/>
       <c r="Y7" s="65"/>
       <c r="Z7" s="65"/>
@@ -9622,12 +11917,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="43.2">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="44" thickBot="1">
       <c r="L8" s="10" t="s">
         <v>77</v>
       </c>
@@ -9641,48 +11935,48 @@
         <v>105</v>
       </c>
       <c r="P8" s="27"/>
-      <c r="Q8" s="69">
+      <c r="Q8" s="67">
         <v>188</v>
       </c>
-      <c r="R8" s="69" t="s">
+      <c r="R8" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="S8" s="69" t="s">
+      <c r="S8" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="69" t="s">
+      <c r="T8" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="U8" s="69" t="s">
+      <c r="U8" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="69"/>
+      <c r="V8" s="67"/>
       <c r="W8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
-      <c r="Q9" s="69">
+    <row r="9" spans="1:29" ht="14.5">
+      <c r="Q9" s="67">
         <v>189</v>
       </c>
-      <c r="R9" s="69" t="s">
+      <c r="R9" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="S9" s="69" t="s">
+      <c r="S9" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="69" t="s">
+      <c r="T9" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="69" t="s">
+      <c r="U9" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V9" s="69"/>
+      <c r="V9" s="67"/>
       <c r="W9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" ht="14.5">
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -9691,7 +11985,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="R11" s="31"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -9699,7 +11993,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="31"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -9707,7 +12001,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="31"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -9715,7 +12009,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="31"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -9723,7 +12017,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="31"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -9731,7 +12025,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="31"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -9739,7 +12033,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="31"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -9747,7 +12041,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="31"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -9765,39 +12059,39 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9869,7 +12163,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30">
+    <row r="2" spans="1:29" ht="30.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -9905,19 +12199,19 @@
         <v>23</v>
       </c>
       <c r="P2" s="24"/>
-      <c r="Q2" s="69">
+      <c r="Q2" s="67">
         <v>190</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="67" t="s">
         <v>45</v>
       </c>
       <c r="V2" s="35"/>
@@ -9932,11 +12226,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -9989,11 +12283,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>4583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -10048,11 +12342,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="44.4">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="45" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -10105,11 +12399,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="30">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.5" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -10149,18 +12443,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>1</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="30">
+      <c r="AC6" s="92">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30.5" thickBot="1">
       <c r="G7" s="10" t="s">
         <v>113</v>
       </c>
@@ -10195,12 +12489,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" thickBot="1">
       <c r="G8" s="10" t="s">
         <v>102</v>
       </c>
@@ -10228,7 +12521,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="G9" s="10" t="s">
         <v>116</v>
       </c>
@@ -10251,7 +12544,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="30">
       <c r="G10" s="10" t="s">
         <v>65</v>
       </c>
@@ -10270,7 +12563,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -10279,7 +12572,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -10287,7 +12580,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -10295,7 +12588,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -10303,7 +12596,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -10311,7 +12604,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -10319,7 +12612,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -10327,7 +12620,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -10348,39 +12641,39 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="73.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="2"/>
+    <col min="18" max="18" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10452,7 +12745,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30">
+    <row r="2" spans="1:29" ht="30.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -10486,19 +12779,19 @@
         <v>23</v>
       </c>
       <c r="P2" s="24"/>
-      <c r="Q2" s="69">
+      <c r="Q2" s="67">
         <v>191</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="67" t="s">
         <v>29</v>
       </c>
       <c r="V2" s="35"/>
@@ -10513,11 +12806,11 @@
       <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="AC2" s="92">
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -10551,19 +12844,19 @@
         <v>23</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="69">
+      <c r="Q3" s="67">
         <v>192</v>
       </c>
-      <c r="R3" s="70" t="s">
+      <c r="R3" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="S3" s="69" t="s">
+      <c r="S3" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="69" t="s">
+      <c r="U3" s="67" t="s">
         <v>29</v>
       </c>
       <c r="V3" s="35"/>
@@ -10578,11 +12871,11 @@
       <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="66">
-        <v>4723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="92">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -10635,11 +12928,11 @@
       <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="44.4">
+      <c r="AC4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="45" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -10684,11 +12977,11 @@
       <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="30">
+      <c r="AC5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.5" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>125</v>
       </c>
@@ -10722,18 +13015,18 @@
       <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="66">
         <v>1</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="66">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="30">
+      <c r="AC6" s="92">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30.5" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>114</v>
       </c>
@@ -10768,12 +13061,11 @@
       <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="67">
-        <f>AC4/AC2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4">
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="29.5" thickBot="1">
       <c r="G8" s="40" t="s">
         <v>65</v>
       </c>
@@ -10799,7 +13091,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" ht="14.5">
       <c r="G9" s="10" t="s">
         <v>116</v>
       </c>
@@ -10820,7 +13112,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8">
+    <row r="10" spans="1:29" ht="30">
       <c r="G10" s="10" t="s">
         <v>65</v>
       </c>
@@ -10839,7 +13131,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" ht="14.5">
       <c r="Q11" s="33"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -10848,7 +13140,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" ht="14.5">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -10856,7 +13148,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" ht="14.5">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -10864,7 +13156,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4">
+    <row r="14" spans="1:29" ht="14.5">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -10872,7 +13164,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4">
+    <row r="15" spans="1:29" ht="14.5">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -10880,7 +13172,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4">
+    <row r="16" spans="1:29" ht="14.5">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -10888,7 +13180,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4">
+    <row r="17" spans="18:23" ht="14.5">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -10896,7 +13188,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4">
+    <row r="18" spans="18:23" ht="14.5">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -10910,21 +13202,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -11101,24 +13378,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B510FF51-61E3-485E-9264-D023960FC08F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11135,4 +13410,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E296F83-B6EE-445C-914C-155B3B1D4C07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF3E81-36B4-447F-AB4F-67B67E32A528}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>